--- a/option_chain_data.xlsx
+++ b/option_chain_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ofmyr\Desktop\OC Fetcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AD993C-BBC9-4BC4-A673-FF250B12F20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86AC8B5-21D9-4B00-AC7C-771F01289473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7968" yWindow="1704" windowWidth="9600" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,11 +462,11 @@
     <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="1"/>
@@ -523,31 +523,31 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>1645</v>
       </c>
       <c r="F3" s="6">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="G3" s="3">
-        <v>0.2</v>
+        <v>0.95</v>
       </c>
       <c r="H3" s="4">
-        <v>2082</v>
+        <v>9954</v>
       </c>
       <c r="I3" s="3">
-        <v>3301</v>
+        <v>31879</v>
       </c>
       <c r="J3" s="3">
-        <v>10693</v>
+        <v>80612</v>
       </c>
       <c r="K3" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
@@ -555,63 +555,63 @@
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>1610</v>
       </c>
       <c r="F4" s="6">
-        <v>17900</v>
+        <v>17950</v>
       </c>
       <c r="G4" s="3">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H4" s="4">
-        <v>1939</v>
+        <v>9196</v>
       </c>
       <c r="I4" s="3">
-        <v>2318</v>
+        <v>11433</v>
       </c>
       <c r="J4" s="3">
-        <v>6371</v>
+        <v>58995</v>
       </c>
       <c r="K4" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="D5" s="5">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>1479.35</v>
       </c>
       <c r="F5" s="6">
         <v>18000</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H5" s="4">
-        <v>6692</v>
+        <v>1.3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>-3301</v>
       </c>
       <c r="I5" s="3">
-        <v>9131</v>
+        <v>56411</v>
       </c>
       <c r="J5" s="3">
-        <v>19786</v>
+        <v>146845</v>
       </c>
       <c r="K5" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
@@ -619,63 +619,63 @@
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>1525</v>
       </c>
       <c r="F6" s="6">
-        <v>18100</v>
+        <v>18050</v>
       </c>
       <c r="G6" s="3">
-        <v>0.2</v>
+        <v>1.25</v>
       </c>
       <c r="H6" s="4">
-        <v>677</v>
+        <v>2980</v>
       </c>
       <c r="I6" s="3">
-        <v>1111</v>
+        <v>3907</v>
       </c>
       <c r="J6" s="3">
-        <v>6485</v>
+        <v>33483</v>
       </c>
       <c r="K6" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>1389.55</v>
       </c>
       <c r="F7" s="6">
-        <v>18200</v>
+        <v>18100</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1743</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H7" s="5">
+        <v>-642</v>
       </c>
       <c r="I7" s="3">
-        <v>2867</v>
+        <v>3687</v>
       </c>
       <c r="J7" s="3">
-        <v>9957</v>
+        <v>61504</v>
       </c>
       <c r="K7" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
@@ -683,95 +683,95 @@
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="F8" s="6">
-        <v>18300</v>
+        <v>18150</v>
       </c>
       <c r="G8" s="3">
-        <v>0.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H8" s="4">
-        <v>1433</v>
+        <v>688</v>
       </c>
       <c r="I8" s="3">
-        <v>1775</v>
+        <v>855</v>
       </c>
       <c r="J8" s="3">
-        <v>9049</v>
+        <v>29494</v>
       </c>
       <c r="K8" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="3">
-        <v>1707</v>
+        <v>1267.4000000000001</v>
       </c>
       <c r="F9" s="6">
-        <v>18400</v>
+        <v>18200</v>
       </c>
       <c r="G9" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="H9" s="4">
-        <v>3144</v>
+        <v>1.2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>-412</v>
       </c>
       <c r="I9" s="3">
-        <v>3579</v>
+        <v>5952</v>
       </c>
       <c r="J9" s="3">
-        <v>15038</v>
+        <v>65688</v>
       </c>
       <c r="K9" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-1</v>
       </c>
       <c r="E10" s="3">
-        <v>1353.8</v>
+        <v>1240</v>
       </c>
       <c r="F10" s="6">
-        <v>18500</v>
+        <v>18250</v>
       </c>
       <c r="G10" s="3">
-        <v>0.25</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H10" s="4">
-        <v>4178</v>
+        <v>685</v>
       </c>
       <c r="I10" s="3">
-        <v>10904</v>
+        <v>1167</v>
       </c>
       <c r="J10" s="3">
-        <v>43247</v>
+        <v>26547</v>
       </c>
       <c r="K10" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
@@ -779,31 +779,31 @@
         <v>0</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>1309</v>
       </c>
       <c r="F11" s="6">
-        <v>18600</v>
+        <v>18300</v>
       </c>
       <c r="G11" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="H11" s="4">
-        <v>2757</v>
+        <v>1.3</v>
+      </c>
+      <c r="H11" s="5">
+        <v>-2232</v>
       </c>
       <c r="I11" s="3">
-        <v>3721</v>
+        <v>8331</v>
       </c>
       <c r="J11" s="3">
-        <v>41013</v>
+        <v>63904</v>
       </c>
       <c r="K11" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
@@ -811,127 +811,127 @@
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>1235</v>
       </c>
       <c r="F12" s="6">
-        <v>18700</v>
+        <v>18350</v>
       </c>
       <c r="G12" s="3">
-        <v>0.35</v>
+        <v>1.2</v>
       </c>
       <c r="H12" s="4">
-        <v>2145</v>
+        <v>646</v>
       </c>
       <c r="I12" s="3">
-        <v>3897</v>
+        <v>1333</v>
       </c>
       <c r="J12" s="3">
-        <v>25685</v>
+        <v>34013</v>
       </c>
       <c r="K12" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="D13" s="5">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <v>1103</v>
       </c>
       <c r="F13" s="6">
-        <v>18800</v>
+        <v>18400</v>
       </c>
       <c r="G13" s="3">
-        <v>0.35</v>
+        <v>1.25</v>
       </c>
       <c r="H13" s="4">
-        <v>1168</v>
+        <v>1830</v>
       </c>
       <c r="I13" s="3">
-        <v>4061</v>
+        <v>14038</v>
       </c>
       <c r="J13" s="3">
-        <v>44467</v>
+        <v>109522</v>
       </c>
       <c r="K13" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>1035</v>
       </c>
       <c r="F14" s="6">
-        <v>18850</v>
+        <v>18450</v>
       </c>
       <c r="G14" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="H14" s="4">
-        <v>2130</v>
+        <v>1.2</v>
+      </c>
+      <c r="H14" s="5">
+        <v>-230</v>
       </c>
       <c r="I14" s="3">
-        <v>2716</v>
+        <v>1635</v>
       </c>
       <c r="J14" s="3">
-        <v>33645</v>
+        <v>35466</v>
       </c>
       <c r="K14" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="D15" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>991.05</v>
       </c>
       <c r="F15" s="6">
-        <v>18900</v>
+        <v>18500</v>
       </c>
       <c r="G15" s="3">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H15" s="4">
-        <v>1746</v>
+        <v>34762</v>
       </c>
       <c r="I15" s="3">
-        <v>4465</v>
+        <v>93706</v>
       </c>
       <c r="J15" s="3">
-        <v>46418</v>
+        <v>241398</v>
       </c>
       <c r="K15" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
@@ -939,1299 +939,1299 @@
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>1047.4000000000001</v>
       </c>
       <c r="F16" s="6">
-        <v>18950</v>
+        <v>18550</v>
       </c>
       <c r="G16" s="3">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="H16" s="4">
-        <v>1357</v>
+        <v>1425</v>
       </c>
       <c r="I16" s="3">
-        <v>2737</v>
+        <v>3841</v>
       </c>
       <c r="J16" s="3">
-        <v>26882</v>
+        <v>47065</v>
       </c>
       <c r="K16" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="C17" s="3">
-        <v>96</v>
-      </c>
-      <c r="D17" s="4">
-        <v>26</v>
+        <v>379</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-4</v>
       </c>
       <c r="E17" s="3">
-        <v>756</v>
+        <v>891.85</v>
       </c>
       <c r="F17" s="6">
-        <v>19000</v>
+        <v>18600</v>
       </c>
       <c r="G17" s="3">
-        <v>0.65</v>
+        <v>1.75</v>
       </c>
       <c r="H17" s="4">
-        <v>28015</v>
+        <v>23752</v>
       </c>
       <c r="I17" s="3">
-        <v>46656</v>
+        <v>35116</v>
       </c>
       <c r="J17" s="3">
-        <v>277385</v>
+        <v>146564</v>
       </c>
       <c r="K17" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>811.1</v>
       </c>
       <c r="F18" s="6">
-        <v>19050</v>
+        <v>18650</v>
       </c>
       <c r="G18" s="3">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H18" s="4">
-        <v>142</v>
+        <v>3020</v>
       </c>
       <c r="I18" s="3">
-        <v>1813</v>
+        <v>4619</v>
       </c>
       <c r="J18" s="3">
-        <v>39379</v>
+        <v>64416</v>
       </c>
       <c r="K18" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="3">
-        <v>31</v>
+        <v>372</v>
       </c>
       <c r="D19" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="3">
-        <v>725</v>
+        <v>775.25</v>
       </c>
       <c r="F19" s="6">
-        <v>19100</v>
+        <v>18700</v>
       </c>
       <c r="G19" s="3">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H19" s="4">
-        <v>3938</v>
+        <v>5851</v>
       </c>
       <c r="I19" s="3">
-        <v>11649</v>
+        <v>26236</v>
       </c>
       <c r="J19" s="3">
-        <v>133014</v>
+        <v>228676</v>
       </c>
       <c r="K19" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>693.1</v>
+        <v>822.15</v>
       </c>
       <c r="F20" s="6">
-        <v>19150</v>
+        <v>18750</v>
       </c>
       <c r="G20" s="3">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H20" s="4">
-        <v>2415</v>
+        <v>3669</v>
       </c>
       <c r="I20" s="3">
-        <v>5358</v>
+        <v>10745</v>
       </c>
       <c r="J20" s="3">
-        <v>38476</v>
+        <v>101757</v>
       </c>
       <c r="K20" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="C21" s="3">
-        <v>17</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2</v>
+        <v>328</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-3</v>
       </c>
       <c r="E21" s="3">
-        <v>540</v>
+        <v>680</v>
       </c>
       <c r="F21" s="6">
-        <v>19200</v>
+        <v>18800</v>
       </c>
       <c r="G21" s="3">
-        <v>0.85</v>
+        <v>2.25</v>
       </c>
       <c r="H21" s="4">
-        <v>4578</v>
+        <v>8834</v>
       </c>
       <c r="I21" s="3">
-        <v>18905</v>
+        <v>30532</v>
       </c>
       <c r="J21" s="3">
-        <v>220372</v>
+        <v>320886</v>
       </c>
       <c r="K21" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C22" s="3">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="D22" s="4">
         <v>2</v>
       </c>
       <c r="E22" s="3">
-        <v>581.79999999999995</v>
+        <v>621.04999999999995</v>
       </c>
       <c r="F22" s="6">
-        <v>19250</v>
+        <v>18850</v>
       </c>
       <c r="G22" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="H22" s="4">
-        <v>11064</v>
+        <v>2.4</v>
+      </c>
+      <c r="H22" s="5">
+        <v>-2372</v>
       </c>
       <c r="I22" s="3">
-        <v>19592</v>
+        <v>13863</v>
       </c>
       <c r="J22" s="3">
-        <v>138680</v>
+        <v>150516</v>
       </c>
       <c r="K22" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="C23" s="3">
-        <v>27</v>
+        <v>368</v>
       </c>
       <c r="D23" s="4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E23" s="3">
-        <v>458</v>
+        <v>583.95000000000005</v>
       </c>
       <c r="F23" s="6">
-        <v>19300</v>
+        <v>18900</v>
       </c>
       <c r="G23" s="3">
-        <v>1.1000000000000001</v>
+        <v>3.05</v>
       </c>
       <c r="H23" s="4">
-        <v>16588</v>
+        <v>11579</v>
       </c>
       <c r="I23" s="3">
-        <v>32283</v>
+        <v>30394</v>
       </c>
       <c r="J23" s="3">
-        <v>366951</v>
+        <v>375492</v>
       </c>
       <c r="K23" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="C24" s="3">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D24" s="4">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E24" s="3">
-        <v>408.3</v>
+        <v>539.29999999999995</v>
       </c>
       <c r="F24" s="6">
-        <v>19350</v>
+        <v>18950</v>
       </c>
       <c r="G24" s="3">
-        <v>1.05</v>
+        <v>3.65</v>
       </c>
       <c r="H24" s="4">
-        <v>4769</v>
+        <v>14195</v>
       </c>
       <c r="I24" s="3">
-        <v>10905</v>
+        <v>24429</v>
       </c>
       <c r="J24" s="3">
-        <v>190216</v>
+        <v>253287</v>
       </c>
       <c r="K24" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
-        <v>573</v>
+        <v>7594</v>
       </c>
       <c r="C25" s="3">
-        <v>264</v>
+        <v>4623</v>
       </c>
       <c r="D25" s="4">
-        <v>233</v>
+        <v>849</v>
       </c>
       <c r="E25" s="3">
-        <v>351.55</v>
+        <v>480.35</v>
       </c>
       <c r="F25" s="6">
-        <v>19400</v>
+        <v>19000</v>
       </c>
       <c r="G25" s="3">
-        <v>2.2000000000000002</v>
+        <v>4.8</v>
       </c>
       <c r="H25" s="4">
-        <v>30093</v>
+        <v>27037</v>
       </c>
       <c r="I25" s="3">
-        <v>51755</v>
+        <v>96683</v>
       </c>
       <c r="J25" s="3">
-        <v>577020</v>
+        <v>718761</v>
       </c>
       <c r="K25" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="C26" s="3">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="D26" s="4">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="E26" s="3">
-        <v>303</v>
+        <v>433.85</v>
       </c>
       <c r="F26" s="6">
-        <v>19450</v>
+        <v>19050</v>
       </c>
       <c r="G26" s="3">
-        <v>2.8</v>
+        <v>6.4</v>
       </c>
       <c r="H26" s="4">
-        <v>15437</v>
+        <v>10329</v>
       </c>
       <c r="I26" s="3">
-        <v>31806</v>
+        <v>19650</v>
       </c>
       <c r="J26" s="3">
-        <v>582394</v>
+        <v>325412</v>
       </c>
       <c r="K26" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
-        <v>7657</v>
+        <v>6564</v>
       </c>
       <c r="C27" s="3">
-        <v>1172</v>
+        <v>1112</v>
       </c>
       <c r="D27" s="4">
-        <v>413</v>
+        <v>694</v>
       </c>
       <c r="E27" s="3">
-        <v>257.14999999999998</v>
+        <v>381.25</v>
       </c>
       <c r="F27" s="6">
-        <v>19500</v>
+        <v>19100</v>
       </c>
       <c r="G27" s="3">
-        <v>4.75</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="H27" s="4">
-        <v>40408</v>
+        <v>35822</v>
       </c>
       <c r="I27" s="3">
-        <v>69103</v>
+        <v>74178</v>
       </c>
       <c r="J27" s="3">
-        <v>1310947</v>
+        <v>729932</v>
       </c>
       <c r="K27" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
-        <v>3179</v>
+        <v>2807</v>
       </c>
       <c r="C28" s="3">
-        <v>603</v>
+        <v>369</v>
       </c>
       <c r="D28" s="4">
-        <v>410</v>
+        <v>99</v>
       </c>
       <c r="E28" s="3">
-        <v>209</v>
+        <v>334.25</v>
       </c>
       <c r="F28" s="6">
-        <v>19550</v>
+        <v>19150</v>
       </c>
       <c r="G28" s="3">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="H28" s="4">
-        <v>41580</v>
+        <v>23791</v>
       </c>
       <c r="I28" s="3">
-        <v>52916</v>
+        <v>41355</v>
       </c>
       <c r="J28" s="3">
-        <v>1001381</v>
+        <v>634853</v>
       </c>
       <c r="K28" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
-        <v>32007</v>
+        <v>34052</v>
       </c>
       <c r="C29" s="3">
-        <v>3410</v>
+        <v>2986</v>
       </c>
       <c r="D29" s="4">
-        <v>3101</v>
+        <v>1313</v>
       </c>
       <c r="E29" s="3">
-        <v>165</v>
+        <v>290.14999999999998</v>
       </c>
       <c r="F29" s="6">
-        <v>19600</v>
+        <v>19200</v>
       </c>
       <c r="G29" s="3">
-        <v>16</v>
+        <v>15.3</v>
       </c>
       <c r="H29" s="4">
-        <v>38565</v>
+        <v>37699</v>
       </c>
       <c r="I29" s="3">
-        <v>59271</v>
+        <v>79833</v>
       </c>
       <c r="J29" s="3">
-        <v>1981131</v>
+        <v>1061941</v>
       </c>
       <c r="K29" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
-        <v>52120</v>
+        <v>18163</v>
       </c>
       <c r="C30" s="3">
-        <v>2388</v>
+        <v>843</v>
       </c>
       <c r="D30" s="4">
-        <v>2261</v>
+        <v>153</v>
       </c>
       <c r="E30" s="3">
-        <v>130</v>
+        <v>246.95</v>
       </c>
       <c r="F30" s="6">
-        <v>19650</v>
+        <v>19250</v>
       </c>
       <c r="G30" s="3">
-        <v>27</v>
+        <v>21.4</v>
       </c>
       <c r="H30" s="4">
-        <v>32396</v>
+        <v>14889</v>
       </c>
       <c r="I30" s="3">
-        <v>42432</v>
+        <v>33990</v>
       </c>
       <c r="J30" s="3">
-        <v>1579815</v>
+        <v>746689</v>
       </c>
       <c r="K30" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
-        <v>382376</v>
+        <v>193186</v>
       </c>
       <c r="C31" s="3">
-        <v>15784</v>
+        <v>7548</v>
       </c>
       <c r="D31" s="4">
-        <v>14436</v>
+        <v>3487</v>
       </c>
       <c r="E31" s="3">
-        <v>87.3</v>
+        <v>204.95</v>
       </c>
       <c r="F31" s="6">
-        <v>19700</v>
+        <v>19300</v>
       </c>
       <c r="G31" s="3">
-        <v>40</v>
+        <v>29.4</v>
       </c>
       <c r="H31" s="4">
-        <v>36821</v>
+        <v>43555</v>
       </c>
       <c r="I31" s="3">
-        <v>56539</v>
+        <v>95102</v>
       </c>
       <c r="J31" s="3">
-        <v>2700331</v>
+        <v>1690348</v>
       </c>
       <c r="K31" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
-        <v>741263</v>
+        <v>178593</v>
       </c>
       <c r="C32" s="3">
-        <v>36874</v>
+        <v>5616</v>
       </c>
       <c r="D32" s="4">
-        <v>36000</v>
+        <v>3955</v>
       </c>
       <c r="E32" s="3">
-        <v>58.1</v>
+        <v>166.6</v>
       </c>
       <c r="F32" s="6">
-        <v>19750</v>
+        <v>19350</v>
       </c>
       <c r="G32" s="3">
-        <v>58.85</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="H32" s="4">
-        <v>29166</v>
+        <v>14292</v>
       </c>
       <c r="I32" s="3">
-        <v>44103</v>
+        <v>30728</v>
       </c>
       <c r="J32" s="3">
-        <v>2153429</v>
+        <v>1131085</v>
       </c>
       <c r="K32" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
-        <v>2408268</v>
+        <v>1024669</v>
       </c>
       <c r="C33" s="3">
-        <v>72085</v>
+        <v>30823</v>
       </c>
       <c r="D33" s="4">
-        <v>68126</v>
+        <v>21686</v>
       </c>
       <c r="E33" s="3">
-        <v>39</v>
+        <v>130.25</v>
       </c>
       <c r="F33" s="6">
-        <v>19800</v>
+        <v>19400</v>
       </c>
       <c r="G33" s="3">
-        <v>88.1</v>
+        <v>56.45</v>
       </c>
       <c r="H33" s="4">
-        <v>12743</v>
+        <v>75413</v>
       </c>
       <c r="I33" s="3">
-        <v>31861</v>
+        <v>136406</v>
       </c>
       <c r="J33" s="3">
-        <v>3551923</v>
+        <v>3056991</v>
       </c>
       <c r="K33" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
-        <v>2132424</v>
+        <v>1581534</v>
       </c>
       <c r="C34" s="3">
-        <v>61716</v>
+        <v>37115</v>
       </c>
       <c r="D34" s="4">
-        <v>55505</v>
+        <v>31850</v>
       </c>
       <c r="E34" s="3">
-        <v>23.3</v>
+        <v>99.75</v>
       </c>
       <c r="F34" s="6">
-        <v>19850</v>
+        <v>19450</v>
       </c>
       <c r="G34" s="3">
-        <v>120.35</v>
-      </c>
-      <c r="H34" s="5">
-        <v>-918</v>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="H34" s="4">
+        <v>17832</v>
       </c>
       <c r="I34" s="3">
-        <v>14276</v>
+        <v>37588</v>
       </c>
       <c r="J34" s="3">
-        <v>1459873</v>
+        <v>2821472</v>
       </c>
       <c r="K34" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
-        <v>2813600</v>
+        <v>3900123</v>
       </c>
       <c r="C35" s="3">
-        <v>119244</v>
+        <v>163145</v>
       </c>
       <c r="D35" s="4">
-        <v>90907</v>
+        <v>107907</v>
       </c>
       <c r="E35" s="3">
-        <v>12.95</v>
+        <v>74</v>
       </c>
       <c r="F35" s="6">
-        <v>19900</v>
+        <v>19500</v>
       </c>
       <c r="G35" s="3">
-        <v>160.55000000000001</v>
-      </c>
-      <c r="H35" s="5">
-        <v>-16930</v>
+        <v>99</v>
+      </c>
+      <c r="H35" s="4">
+        <v>16373</v>
       </c>
       <c r="I35" s="3">
-        <v>14881</v>
+        <v>105411</v>
       </c>
       <c r="J35" s="3">
-        <v>1001884</v>
+        <v>4347424</v>
       </c>
       <c r="K35" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
-        <v>1884832</v>
+        <v>1817553</v>
       </c>
       <c r="C36" s="3">
-        <v>72338</v>
+        <v>105744</v>
       </c>
       <c r="D36" s="4">
-        <v>45524</v>
+        <v>71232</v>
       </c>
       <c r="E36" s="3">
-        <v>7.65</v>
+        <v>52.8</v>
       </c>
       <c r="F36" s="6">
-        <v>19950</v>
+        <v>19550</v>
       </c>
       <c r="G36" s="3">
-        <v>208.7</v>
+        <v>128.35</v>
       </c>
       <c r="H36" s="5">
-        <v>-5597</v>
+        <v>-9487</v>
       </c>
       <c r="I36" s="3">
-        <v>5013</v>
+        <v>18935</v>
       </c>
       <c r="J36" s="3">
-        <v>198437</v>
+        <v>1064527</v>
       </c>
       <c r="K36" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
-        <v>2904621</v>
+        <v>2607173</v>
       </c>
       <c r="C37" s="3">
-        <v>157441</v>
+        <v>186209</v>
       </c>
       <c r="D37" s="4">
-        <v>93989</v>
+        <v>79221</v>
       </c>
       <c r="E37" s="3">
-        <v>4.0999999999999996</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="F37" s="6">
-        <v>20000</v>
+        <v>19600</v>
       </c>
       <c r="G37" s="3">
-        <v>254</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="H37" s="5">
-        <v>-9804</v>
+        <v>-16793</v>
       </c>
       <c r="I37" s="3">
-        <v>9223</v>
+        <v>44985</v>
       </c>
       <c r="J37" s="3">
-        <v>183038</v>
+        <v>1164255</v>
       </c>
       <c r="K37" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
-        <v>1690971</v>
+        <v>1103214</v>
       </c>
       <c r="C38" s="3">
-        <v>71472</v>
+        <v>80551</v>
       </c>
       <c r="D38" s="4">
-        <v>46897</v>
+        <v>36800</v>
       </c>
       <c r="E38" s="3">
-        <v>2.9</v>
+        <v>24.6</v>
       </c>
       <c r="F38" s="6">
-        <v>20050</v>
+        <v>19650</v>
       </c>
       <c r="G38" s="3">
-        <v>302.45</v>
+        <v>198.6</v>
       </c>
       <c r="H38" s="5">
-        <v>-1253</v>
+        <v>-262</v>
       </c>
       <c r="I38" s="3">
-        <v>2342</v>
+        <v>6996</v>
       </c>
       <c r="J38" s="3">
-        <v>23485</v>
+        <v>232155</v>
       </c>
       <c r="K38" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="3">
-        <v>1792038</v>
+        <v>1468652</v>
       </c>
       <c r="C39" s="3">
-        <v>95313</v>
+        <v>118375</v>
       </c>
       <c r="D39" s="4">
-        <v>47765</v>
+        <v>34972</v>
       </c>
       <c r="E39" s="3">
-        <v>2.35</v>
+        <v>16.3</v>
       </c>
       <c r="F39" s="6">
-        <v>20100</v>
+        <v>19700</v>
       </c>
       <c r="G39" s="3">
-        <v>350.6</v>
+        <v>239.2</v>
       </c>
       <c r="H39" s="5">
-        <v>-3782</v>
+        <v>-2471</v>
       </c>
       <c r="I39" s="3">
-        <v>7877</v>
+        <v>14391</v>
       </c>
       <c r="J39" s="3">
-        <v>28059</v>
+        <v>219624</v>
       </c>
       <c r="K39" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
-        <v>977471</v>
+        <v>849549</v>
       </c>
       <c r="C40" s="3">
-        <v>50217</v>
+        <v>63192</v>
       </c>
       <c r="D40" s="4">
-        <v>21826</v>
+        <v>33964</v>
       </c>
       <c r="E40" s="3">
-        <v>1.95</v>
+        <v>10.1</v>
       </c>
       <c r="F40" s="6">
-        <v>20150</v>
+        <v>19750</v>
       </c>
       <c r="G40" s="3">
-        <v>401.55</v>
-      </c>
-      <c r="H40" s="5">
-        <v>-365</v>
+        <v>282.95</v>
+      </c>
+      <c r="H40" s="4">
+        <v>175</v>
       </c>
       <c r="I40" s="3">
-        <v>482</v>
+        <v>2052</v>
       </c>
       <c r="J40" s="3">
-        <v>3280</v>
+        <v>27548</v>
       </c>
       <c r="K40" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
-        <v>1143327</v>
+        <v>1240961</v>
       </c>
       <c r="C41" s="3">
-        <v>85409</v>
+        <v>131837</v>
       </c>
       <c r="D41" s="4">
-        <v>48389</v>
+        <v>79828</v>
       </c>
       <c r="E41" s="3">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="F41" s="6">
-        <v>20200</v>
+        <v>19800</v>
       </c>
       <c r="G41" s="3">
-        <v>452.35</v>
+        <v>330.35</v>
       </c>
       <c r="H41" s="5">
-        <v>-503</v>
+        <v>-1756</v>
       </c>
       <c r="I41" s="3">
-        <v>746</v>
+        <v>5034</v>
       </c>
       <c r="J41" s="3">
-        <v>4225</v>
+        <v>38747</v>
       </c>
       <c r="K41" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
-        <v>597117</v>
+        <v>834887</v>
       </c>
       <c r="C42" s="3">
-        <v>38242</v>
-      </c>
-      <c r="D42" s="5">
-        <v>-13939</v>
+        <v>70330</v>
+      </c>
+      <c r="D42" s="4">
+        <v>18739</v>
       </c>
       <c r="E42" s="3">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="F42" s="6">
-        <v>20250</v>
+        <v>19850</v>
       </c>
       <c r="G42" s="3">
-        <v>494.75</v>
+        <v>377.95</v>
       </c>
       <c r="H42" s="5">
-        <v>-262</v>
+        <v>-208</v>
       </c>
       <c r="I42" s="3">
-        <v>1025</v>
+        <v>784</v>
       </c>
       <c r="J42" s="3">
-        <v>1434</v>
+        <v>7969</v>
       </c>
       <c r="K42" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
-        <v>725152</v>
+        <v>958316</v>
       </c>
       <c r="C43" s="3">
-        <v>74108</v>
+        <v>78021</v>
       </c>
       <c r="D43" s="4">
-        <v>37497</v>
+        <v>23312</v>
       </c>
       <c r="E43" s="3">
-        <v>1.5</v>
+        <v>3.65</v>
       </c>
       <c r="F43" s="6">
-        <v>20300</v>
+        <v>19900</v>
       </c>
       <c r="G43" s="3">
-        <v>550.6</v>
+        <v>427</v>
       </c>
       <c r="H43" s="5">
-        <v>-71</v>
+        <v>-205</v>
       </c>
       <c r="I43" s="3">
-        <v>219</v>
+        <v>1528</v>
       </c>
       <c r="J43" s="3">
-        <v>1071</v>
+        <v>5664</v>
       </c>
       <c r="K43" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
-        <v>362200</v>
+        <v>525838</v>
       </c>
       <c r="C44" s="3">
-        <v>31117</v>
+        <v>66155</v>
       </c>
       <c r="D44" s="4">
-        <v>15532</v>
+        <v>37487</v>
       </c>
       <c r="E44" s="3">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="F44" s="6">
-        <v>20350</v>
+        <v>19950</v>
       </c>
       <c r="G44" s="3">
-        <v>597</v>
-      </c>
-      <c r="H44" s="5">
-        <v>-9</v>
+        <v>471.8</v>
+      </c>
+      <c r="H44" s="4">
+        <v>15</v>
       </c>
       <c r="I44" s="3">
-        <v>166</v>
+        <v>367</v>
       </c>
       <c r="J44" s="3">
-        <v>89</v>
+        <v>380</v>
       </c>
       <c r="K44" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
-        <v>597086</v>
+        <v>927441</v>
       </c>
       <c r="C45" s="3">
-        <v>52861</v>
+        <v>134480</v>
       </c>
       <c r="D45" s="4">
-        <v>34857</v>
+        <v>68115</v>
       </c>
       <c r="E45" s="3">
-        <v>1.35</v>
+        <v>2.4</v>
       </c>
       <c r="F45" s="6">
-        <v>20400</v>
+        <v>20000</v>
       </c>
       <c r="G45" s="3">
-        <v>646.65</v>
+        <v>524.4</v>
       </c>
       <c r="H45" s="5">
-        <v>-13</v>
+        <v>-175</v>
       </c>
       <c r="I45" s="3">
-        <v>366</v>
+        <v>2776</v>
       </c>
       <c r="J45" s="3">
-        <v>221</v>
+        <v>7008</v>
       </c>
       <c r="K45" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
-        <v>139818</v>
+        <v>300887</v>
       </c>
       <c r="C46" s="3">
-        <v>6814</v>
-      </c>
-      <c r="D46" s="5">
-        <v>-2413</v>
+        <v>32621</v>
+      </c>
+      <c r="D46" s="4">
+        <v>18144</v>
       </c>
       <c r="E46" s="3">
-        <v>1.1499999999999999</v>
+        <v>1.95</v>
       </c>
       <c r="F46" s="6">
-        <v>20450</v>
+        <v>20050</v>
       </c>
       <c r="G46" s="3">
-        <v>704.4</v>
+        <v>589.35</v>
       </c>
       <c r="H46" s="4">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="I46" s="3">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="J46" s="3">
-        <v>142</v>
+        <v>1340</v>
       </c>
       <c r="K46" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
-        <v>495101</v>
+        <v>550134</v>
       </c>
       <c r="C47" s="3">
-        <v>60491</v>
-      </c>
-      <c r="D47" s="4">
-        <v>36478</v>
+        <v>56442</v>
+      </c>
+      <c r="D47" s="5">
+        <v>-16096</v>
       </c>
       <c r="E47" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="F47" s="6">
-        <v>20500</v>
+        <v>20100</v>
       </c>
       <c r="G47" s="3">
-        <v>740.3</v>
+        <v>608.75</v>
       </c>
       <c r="H47" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I47" s="3">
-        <v>284</v>
+        <v>379</v>
       </c>
       <c r="J47" s="3">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="K47" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
-        <v>115834</v>
+        <v>194113</v>
       </c>
       <c r="C48" s="3">
-        <v>9507</v>
+        <v>28871</v>
       </c>
       <c r="D48" s="4">
-        <v>3396</v>
+        <v>10440</v>
       </c>
       <c r="E48" s="3">
-        <v>1.1499999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="F48" s="6">
-        <v>20550</v>
+        <v>20150</v>
       </c>
       <c r="G48" s="3">
-        <v>800</v>
+        <v>657.55</v>
       </c>
       <c r="H48" s="5">
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="J48" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K48" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
-        <v>269481</v>
+        <v>428482</v>
       </c>
       <c r="C49" s="3">
-        <v>26040</v>
-      </c>
-      <c r="D49" s="4">
-        <v>12103</v>
+        <v>48376</v>
+      </c>
+      <c r="D49" s="5">
+        <v>-4948</v>
       </c>
       <c r="E49" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="F49" s="6">
-        <v>20600</v>
+        <v>20200</v>
       </c>
       <c r="G49" s="3">
-        <v>812.8</v>
+        <v>720</v>
       </c>
       <c r="H49" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" s="3">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="J49" s="3">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="K49" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
-        <v>64513</v>
+        <v>126057</v>
       </c>
       <c r="C50" s="3">
-        <v>6952</v>
+        <v>18140</v>
       </c>
       <c r="D50" s="4">
-        <v>3076</v>
+        <v>10444</v>
       </c>
       <c r="E50" s="3">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="F50" s="6">
-        <v>20650</v>
+        <v>20250</v>
       </c>
       <c r="G50" s="3">
-        <v>718.7</v>
+        <v>670</v>
       </c>
       <c r="H50" s="4">
         <v>0</v>
       </c>
       <c r="I50" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" s="3">
         <v>0</v>
       </c>
       <c r="K50" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="3">
-        <v>167752</v>
+        <v>252406</v>
       </c>
       <c r="C51" s="3">
-        <v>19931</v>
-      </c>
-      <c r="D51" s="5">
-        <v>-821</v>
+        <v>53632</v>
+      </c>
+      <c r="D51" s="4">
+        <v>30395</v>
       </c>
       <c r="E51" s="3">
-        <v>0.9</v>
+        <v>1.55</v>
       </c>
       <c r="F51" s="6">
-        <v>20700</v>
+        <v>20300</v>
       </c>
       <c r="G51" s="3">
-        <v>949</v>
+        <v>833.4</v>
       </c>
       <c r="H51" s="5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I51" s="3">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="J51" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K51" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="3">
-        <v>80561</v>
+        <v>65995</v>
       </c>
       <c r="C52" s="3">
-        <v>14483</v>
+        <v>2936</v>
       </c>
       <c r="D52" s="4">
-        <v>15</v>
+        <v>1336</v>
       </c>
       <c r="E52" s="3">
-        <v>0.65</v>
+        <v>1.75</v>
       </c>
       <c r="F52" s="6">
-        <v>20750</v>
+        <v>20350</v>
       </c>
       <c r="G52" s="3">
-        <v>991.6</v>
+        <v>725.15</v>
       </c>
       <c r="H52" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K52" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="3">
-        <v>130263</v>
+        <v>177740</v>
       </c>
       <c r="C53" s="3">
-        <v>19619</v>
+        <v>14086</v>
       </c>
       <c r="D53" s="4">
-        <v>1364</v>
+        <v>877</v>
       </c>
       <c r="E53" s="3">
-        <v>0.8</v>
+        <v>1.45</v>
       </c>
       <c r="F53" s="6">
-        <v>20800</v>
+        <v>20400</v>
       </c>
       <c r="G53" s="3">
-        <v>1048.55</v>
+        <v>906</v>
       </c>
       <c r="H53" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J53" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K53" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="3">
-        <v>16954</v>
+        <v>55956</v>
       </c>
       <c r="C54" s="3">
-        <v>585</v>
-      </c>
-      <c r="D54" s="5">
-        <v>-172</v>
+        <v>2226</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1659</v>
       </c>
       <c r="E54" s="3">
-        <v>0.75</v>
+        <v>1.55</v>
       </c>
       <c r="F54" s="6">
-        <v>20850</v>
+        <v>20450</v>
       </c>
       <c r="G54" s="3">
-        <v>1094.1500000000001</v>
+        <v>0</v>
       </c>
       <c r="H54" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="K54" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="3">
-        <v>76592</v>
+        <v>373531</v>
       </c>
       <c r="C55" s="3">
-        <v>10214</v>
+        <v>61359</v>
       </c>
       <c r="D55" s="4">
-        <v>596</v>
+        <v>2725</v>
       </c>
       <c r="E55" s="3">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="F55" s="6">
-        <v>20900</v>
+        <v>20500</v>
       </c>
       <c r="G55" s="3">
-        <v>984.65</v>
+        <v>1022.2</v>
       </c>
       <c r="H55" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I55" s="3">
-        <v>4</v>
+        <v>440</v>
       </c>
       <c r="J55" s="3">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="K55" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="3">
-        <v>12042</v>
+        <v>49636</v>
       </c>
       <c r="C56" s="3">
-        <v>1678</v>
+        <v>1738</v>
       </c>
       <c r="D56" s="4">
-        <v>922</v>
+        <v>607</v>
       </c>
       <c r="E56" s="3">
-        <v>0.35</v>
+        <v>1.4</v>
       </c>
       <c r="F56" s="6">
-        <v>20950</v>
+        <v>20550</v>
       </c>
       <c r="G56" s="3">
-        <v>919.25</v>
+        <v>0</v>
       </c>
       <c r="H56" s="4">
         <v>0</v>
@@ -2243,59 +2243,59 @@
         <v>0</v>
       </c>
       <c r="K56" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" s="3">
-        <v>165984</v>
+        <v>119254</v>
       </c>
       <c r="C57" s="3">
-        <v>42023</v>
-      </c>
-      <c r="D57" s="4">
-        <v>15108</v>
+        <v>6698</v>
+      </c>
+      <c r="D57" s="5">
+        <v>-1922</v>
       </c>
       <c r="E57" s="3">
-        <v>0.65</v>
+        <v>1.5</v>
       </c>
       <c r="F57" s="6">
-        <v>21000</v>
+        <v>20600</v>
       </c>
       <c r="G57" s="3">
-        <v>1191.7</v>
+        <v>1064.55</v>
       </c>
       <c r="H57" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="J57" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K57" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="3">
-        <v>10923</v>
+        <v>60349</v>
       </c>
       <c r="C58" s="3">
-        <v>416</v>
-      </c>
-      <c r="D58" s="4">
-        <v>97</v>
+        <v>884</v>
+      </c>
+      <c r="D58" s="5">
+        <v>-169</v>
       </c>
       <c r="E58" s="3">
-        <v>0.35</v>
+        <v>1.45</v>
       </c>
       <c r="F58" s="6">
-        <v>21050</v>
+        <v>20650</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>1024.25</v>
       </c>
       <c r="H58" s="4">
         <v>0</v>
@@ -2307,27 +2307,27 @@
         <v>0</v>
       </c>
       <c r="K58" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B59" s="3">
-        <v>41506</v>
+        <v>105379</v>
       </c>
       <c r="C59" s="3">
-        <v>5254</v>
+        <v>14279</v>
       </c>
       <c r="D59" s="4">
-        <v>3865</v>
+        <v>8650</v>
       </c>
       <c r="E59" s="3">
-        <v>0.45</v>
+        <v>1.55</v>
       </c>
       <c r="F59" s="6">
-        <v>21100</v>
+        <v>20700</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>1075.95</v>
       </c>
       <c r="H59" s="5">
         <v>0</v>
@@ -2339,59 +2339,59 @@
         <v>0</v>
       </c>
       <c r="K59" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" s="3">
-        <v>8324</v>
+        <v>64696</v>
       </c>
       <c r="C60" s="3">
-        <v>351</v>
-      </c>
-      <c r="D60" s="5">
-        <v>-69</v>
+        <v>5094</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1763</v>
       </c>
       <c r="E60" s="3">
-        <v>0.55000000000000004</v>
+        <v>1.5</v>
       </c>
       <c r="F60" s="6">
-        <v>21150</v>
+        <v>20750</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>1168.2</v>
       </c>
       <c r="H60" s="5">
         <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
       </c>
       <c r="K60" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61" s="3">
-        <v>68525</v>
+        <v>123068</v>
       </c>
       <c r="C61" s="3">
-        <v>13085</v>
+        <v>25997</v>
       </c>
       <c r="D61" s="4">
-        <v>11841</v>
+        <v>18172</v>
       </c>
       <c r="E61" s="3">
-        <v>0.55000000000000004</v>
+        <v>1.45</v>
       </c>
       <c r="F61" s="6">
-        <v>21200</v>
+        <v>20800</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>1232.25</v>
       </c>
       <c r="H61" s="5">
         <v>0</v>
@@ -2403,24 +2403,24 @@
         <v>0</v>
       </c>
       <c r="K61" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B62" s="3">
-        <v>7120</v>
+        <v>53066</v>
       </c>
       <c r="C62" s="3">
-        <v>217</v>
-      </c>
-      <c r="D62" s="5">
-        <v>-156</v>
+        <v>4143</v>
+      </c>
+      <c r="D62" s="4">
+        <v>969</v>
       </c>
       <c r="E62" s="3">
-        <v>0.55000000000000004</v>
+        <v>1.45</v>
       </c>
       <c r="F62" s="6">
-        <v>21250</v>
+        <v>20850</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -2435,24 +2435,24 @@
         <v>0</v>
       </c>
       <c r="K62" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B63" s="3">
-        <v>11956</v>
+        <v>77121</v>
       </c>
       <c r="C63" s="3">
-        <v>2222</v>
+        <v>17614</v>
       </c>
       <c r="D63" s="4">
-        <v>1158</v>
+        <v>12518</v>
       </c>
       <c r="E63" s="3">
-        <v>0.45</v>
+        <v>1.35</v>
       </c>
       <c r="F63" s="6">
-        <v>21300</v>
+        <v>20900</v>
       </c>
       <c r="G63" s="3">
         <v>0</v>
@@ -2467,24 +2467,24 @@
         <v>0</v>
       </c>
       <c r="K63" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B64" s="3">
-        <v>1723</v>
+        <v>19987</v>
       </c>
       <c r="C64" s="3">
-        <v>240</v>
+        <v>1097</v>
       </c>
       <c r="D64" s="4">
-        <v>121</v>
+        <v>655</v>
       </c>
       <c r="E64" s="3">
-        <v>0.35</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="F64" s="6">
-        <v>21350</v>
+        <v>20950</v>
       </c>
       <c r="G64" s="3">
         <v>0</v>
@@ -2499,56 +2499,56 @@
         <v>0</v>
       </c>
       <c r="K64" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B65" s="3">
-        <v>29732</v>
+        <v>253595</v>
       </c>
       <c r="C65" s="3">
-        <v>13548</v>
+        <v>54124</v>
       </c>
       <c r="D65" s="4">
-        <v>7626</v>
+        <v>19789</v>
       </c>
       <c r="E65" s="3">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="F65" s="6">
-        <v>21400</v>
+        <v>21000</v>
       </c>
       <c r="G65" s="3">
-        <v>0</v>
+        <v>1511.45</v>
       </c>
       <c r="H65" s="4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I65" s="3">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="J65" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K65" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B66" s="3">
-        <v>7665</v>
+        <v>10190</v>
       </c>
       <c r="C66" s="3">
-        <v>2156</v>
+        <v>552</v>
       </c>
       <c r="D66" s="4">
-        <v>1324</v>
+        <v>214</v>
       </c>
       <c r="E66" s="3">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="F66" s="6">
-        <v>21450</v>
+        <v>21050</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
@@ -2563,24 +2563,24 @@
         <v>0</v>
       </c>
       <c r="K66" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B67" s="3">
-        <v>35308</v>
+        <v>20588</v>
       </c>
       <c r="C67" s="3">
-        <v>29908</v>
+        <v>6160</v>
       </c>
       <c r="D67" s="4">
-        <v>4446</v>
+        <v>2439</v>
       </c>
       <c r="E67" s="3">
-        <v>0.55000000000000004</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F67" s="6">
-        <v>21500</v>
+        <v>21100</v>
       </c>
       <c r="G67" s="3">
         <v>0</v>
@@ -2595,24 +2595,24 @@
         <v>0</v>
       </c>
       <c r="K67" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B68" s="3">
-        <v>1782</v>
+        <v>10762</v>
       </c>
       <c r="C68" s="3">
-        <v>388</v>
+        <v>1641</v>
       </c>
       <c r="D68" s="4">
-        <v>143</v>
+        <v>1251</v>
       </c>
       <c r="E68" s="3">
-        <v>0.25</v>
+        <v>1.05</v>
       </c>
       <c r="F68" s="6">
-        <v>21550</v>
+        <v>21150</v>
       </c>
       <c r="G68" s="3">
         <v>0</v>
@@ -2627,24 +2627,24 @@
         <v>0</v>
       </c>
       <c r="K68" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B69" s="3">
-        <v>4671</v>
+        <v>28160</v>
       </c>
       <c r="C69" s="3">
-        <v>2556</v>
+        <v>6018</v>
       </c>
       <c r="D69" s="4">
-        <v>720</v>
+        <v>1456</v>
       </c>
       <c r="E69" s="3">
-        <v>0.75</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F69" s="6">
-        <v>21600</v>
+        <v>21200</v>
       </c>
       <c r="G69" s="3">
         <v>0</v>
@@ -2659,24 +2659,24 @@
         <v>0</v>
       </c>
       <c r="K69" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B70" s="3">
-        <v>3922</v>
+        <v>8203</v>
       </c>
       <c r="C70" s="3">
-        <v>1479</v>
+        <v>1154</v>
       </c>
       <c r="D70" s="4">
-        <v>742</v>
+        <v>1020</v>
       </c>
       <c r="E70" s="3">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="F70" s="6">
-        <v>21700</v>
+        <v>21250</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2691,24 +2691,24 @@
         <v>0</v>
       </c>
       <c r="K70" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B71" s="3">
-        <v>3193</v>
+        <v>34600</v>
       </c>
       <c r="C71" s="3">
-        <v>1203</v>
+        <v>9122</v>
       </c>
       <c r="D71" s="4">
-        <v>162</v>
+        <v>5391</v>
       </c>
       <c r="E71" s="3">
-        <v>0.4</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="F71" s="6">
-        <v>21800</v>
+        <v>21300</v>
       </c>
       <c r="G71" s="3">
         <v>0</v>
@@ -2723,56 +2723,56 @@
         <v>0</v>
       </c>
       <c r="K71" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B72" s="3">
-        <v>3846</v>
+        <v>19496</v>
       </c>
       <c r="C72" s="3">
-        <v>1233</v>
-      </c>
-      <c r="D72" s="5">
-        <v>-506</v>
+        <v>5506</v>
+      </c>
+      <c r="D72" s="4">
+        <v>5458</v>
       </c>
       <c r="E72" s="3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F72" s="6">
-        <v>21900</v>
+        <v>21350</v>
       </c>
       <c r="G72" s="3">
-        <v>0</v>
+        <v>1822.45</v>
       </c>
       <c r="H72" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K72" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B73" s="3">
-        <v>24477</v>
+        <v>34019</v>
       </c>
       <c r="C73" s="3">
-        <v>15584</v>
+        <v>8518</v>
       </c>
       <c r="D73" s="4">
-        <v>7464</v>
+        <v>4093</v>
       </c>
       <c r="E73" s="3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F73" s="6">
-        <v>22000</v>
+        <v>21400</v>
       </c>
       <c r="G73" s="3">
         <v>0</v>
@@ -2787,24 +2787,24 @@
         <v>0</v>
       </c>
       <c r="K73" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B74" s="3">
-        <v>2075</v>
+        <v>32108</v>
       </c>
       <c r="C74" s="3">
-        <v>1585</v>
+        <v>8392</v>
       </c>
       <c r="D74" s="4">
-        <v>272</v>
+        <v>4124</v>
       </c>
       <c r="E74" s="3">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="F74" s="6">
-        <v>22100</v>
+        <v>21450</v>
       </c>
       <c r="G74" s="3">
         <v>0</v>
@@ -2819,168 +2819,88 @@
         <v>0</v>
       </c>
       <c r="K74" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B75" s="3">
-        <v>2234</v>
+        <v>198529</v>
       </c>
       <c r="C75" s="3">
-        <v>837</v>
+        <v>42295</v>
       </c>
       <c r="D75" s="4">
-        <v>418</v>
+        <v>17683</v>
       </c>
       <c r="E75" s="3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F75" s="6">
-        <v>22200</v>
+        <v>21500</v>
       </c>
       <c r="G75" s="3">
-        <v>0</v>
+        <v>1977.05</v>
       </c>
       <c r="H75" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J75" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="6">
-        <v>19718.650000000001</v>
+        <v>19428.3</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="3">
-        <v>1818</v>
-      </c>
-      <c r="C76" s="3">
-        <v>978</v>
-      </c>
-      <c r="D76" s="4">
-        <v>76</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="F76" s="6">
-        <v>22300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="6">
-        <v>19718.650000000001</v>
-      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="6"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="3">
-        <v>3783</v>
-      </c>
-      <c r="C77" s="3">
-        <v>985</v>
-      </c>
-      <c r="D77" s="4">
-        <v>490</v>
-      </c>
-      <c r="E77" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="F77" s="6">
-        <v>22400</v>
-      </c>
-      <c r="G77" s="3">
-        <v>0</v>
-      </c>
-      <c r="H77" s="4">
-        <v>0</v>
-      </c>
-      <c r="I77" s="3">
-        <v>0</v>
-      </c>
-      <c r="J77" s="3">
-        <v>0</v>
-      </c>
-      <c r="K77" s="6">
-        <v>19718.650000000001</v>
-      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="6"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="3">
-        <v>5824</v>
-      </c>
-      <c r="C78" s="3">
-        <v>3062</v>
-      </c>
-      <c r="D78" s="4">
-        <v>1287</v>
-      </c>
-      <c r="E78" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F78" s="6">
-        <v>22500</v>
-      </c>
-      <c r="G78" s="3">
-        <v>0</v>
-      </c>
-      <c r="H78" s="3">
-        <v>0</v>
-      </c>
-      <c r="I78" s="3">
-        <v>0</v>
-      </c>
-      <c r="J78" s="3">
-        <v>0</v>
-      </c>
-      <c r="K78" s="6">
-        <v>19718.650000000001</v>
-      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="6"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="3">
-        <v>6133</v>
-      </c>
-      <c r="C79" s="3">
-        <v>2474</v>
-      </c>
-      <c r="D79" s="4">
-        <v>1086</v>
-      </c>
-      <c r="E79" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="F79" s="6">
-        <v>22600</v>
-      </c>
-      <c r="G79" s="3">
-        <v>0</v>
-      </c>
-      <c r="H79" s="3">
-        <v>0</v>
-      </c>
-      <c r="I79" s="3">
-        <v>0</v>
-      </c>
-      <c r="J79" s="3">
-        <v>0</v>
-      </c>
-      <c r="K79" s="6">
-        <v>19718.650000000001</v>
-      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="6"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B80" s="3"/>

--- a/option_chain_data.xlsx
+++ b/option_chain_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ofmyr\Desktop\OC Fetcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86AC8B5-21D9-4B00-AC7C-771F01289473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186FACD7-2019-4668-9138-A240F14DD6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7968" yWindow="1704" windowWidth="9600" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9180" yWindow="0" windowWidth="13956" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,12 +453,12 @@
   <dimension ref="B1:K97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="B34" sqref="B34:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.109375" style="1" bestFit="1" customWidth="1"/>
@@ -518,2037 +518,2037 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>1645</v>
+        <v>0</v>
       </c>
       <c r="F3" s="6">
-        <v>17900</v>
+        <v>38000</v>
       </c>
       <c r="G3" s="3">
-        <v>0.95</v>
+        <v>2.75</v>
       </c>
       <c r="H3" s="4">
-        <v>9954</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3">
-        <v>31879</v>
+        <v>25533</v>
       </c>
       <c r="J3" s="3">
-        <v>80612</v>
+        <v>82070</v>
       </c>
       <c r="K3" s="6">
-        <v>19428.3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>0</v>
       </c>
       <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>38500</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="H4" s="4">
+        <v>50301</v>
+      </c>
+      <c r="I4" s="3">
+        <v>89583</v>
+      </c>
+      <c r="J4" s="3">
+        <v>329661</v>
+      </c>
+      <c r="K4" s="6">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>39000</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.85</v>
+      </c>
+      <c r="H5" s="5">
+        <v>-12042</v>
+      </c>
+      <c r="I5" s="3">
+        <v>22976</v>
+      </c>
+      <c r="J5" s="3">
+        <v>166025</v>
+      </c>
+      <c r="K5" s="6">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>39500</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3.05</v>
+      </c>
+      <c r="H6" s="4">
+        <v>7189</v>
+      </c>
+      <c r="I6" s="3">
+        <v>19784</v>
+      </c>
+      <c r="J6" s="3">
+        <v>111489</v>
+      </c>
+      <c r="K6" s="6">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>40000</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3.05</v>
+      </c>
+      <c r="H7" s="4">
+        <v>11331</v>
+      </c>
+      <c r="I7" s="3">
+        <v>31126</v>
+      </c>
+      <c r="J7" s="3">
+        <v>175166</v>
+      </c>
+      <c r="K7" s="6">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1610</v>
-      </c>
-      <c r="F4" s="6">
-        <v>17950</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="H4" s="4">
-        <v>9196</v>
-      </c>
-      <c r="I4" s="3">
-        <v>11433</v>
-      </c>
-      <c r="J4" s="3">
-        <v>58995</v>
-      </c>
-      <c r="K4" s="6">
-        <v>19428.3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3">
-        <v>342</v>
-      </c>
-      <c r="D5" s="5">
-        <v>-12</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1479.35</v>
-      </c>
-      <c r="F5" s="6">
-        <v>18000</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="H5" s="5">
-        <v>-3301</v>
-      </c>
-      <c r="I5" s="3">
-        <v>56411</v>
-      </c>
-      <c r="J5" s="3">
-        <v>146845</v>
-      </c>
-      <c r="K5" s="6">
-        <v>19428.3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1525</v>
-      </c>
-      <c r="F6" s="6">
-        <v>18050</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1.25</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2980</v>
-      </c>
-      <c r="I6" s="3">
-        <v>3907</v>
-      </c>
-      <c r="J6" s="3">
-        <v>33483</v>
-      </c>
-      <c r="K6" s="6">
-        <v>19428.3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1389.55</v>
-      </c>
-      <c r="F7" s="6">
-        <v>18100</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H7" s="5">
-        <v>-642</v>
-      </c>
-      <c r="I7" s="3">
-        <v>3687</v>
-      </c>
-      <c r="J7" s="3">
-        <v>61504</v>
-      </c>
-      <c r="K7" s="6">
-        <v>19428.3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>11</v>
-      </c>
       <c r="D8" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>1420</v>
+        <v>3424.05</v>
       </c>
       <c r="F8" s="6">
-        <v>18150</v>
+        <v>40500</v>
       </c>
       <c r="G8" s="3">
-        <v>1.1499999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="H8" s="4">
-        <v>688</v>
+        <v>15893</v>
       </c>
       <c r="I8" s="3">
-        <v>855</v>
+        <v>29665</v>
       </c>
       <c r="J8" s="3">
-        <v>29494</v>
+        <v>170333</v>
       </c>
       <c r="K8" s="6">
-        <v>19428.3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2908.9</v>
+      </c>
+      <c r="F9" s="6">
+        <v>41000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="H9" s="4">
+        <v>26898</v>
+      </c>
+      <c r="I9" s="3">
+        <v>62982</v>
+      </c>
+      <c r="J9" s="3">
+        <v>285046</v>
+      </c>
+      <c r="K9" s="6">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>41500</v>
+      </c>
+      <c r="G10" s="3">
+        <v>4.55</v>
+      </c>
+      <c r="H10" s="4">
+        <v>47016</v>
+      </c>
+      <c r="I10" s="3">
+        <v>92610</v>
+      </c>
+      <c r="J10" s="3">
+        <v>416021</v>
+      </c>
+      <c r="K10" s="6">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>41700</v>
+      </c>
+      <c r="G11" s="3">
+        <v>4.95</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>13817</v>
+      </c>
+      <c r="J11" s="3">
+        <v>67389</v>
+      </c>
+      <c r="K11" s="6">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>41800</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5.05</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>11906</v>
+      </c>
+      <c r="J12" s="3">
+        <v>62585</v>
+      </c>
+      <c r="K12" s="6">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>41900</v>
+      </c>
+      <c r="G13" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>11073</v>
+      </c>
+      <c r="J13" s="3">
+        <v>80311</v>
+      </c>
+      <c r="K13" s="6">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>187</v>
+      </c>
+      <c r="C14" s="3">
+        <v>684</v>
+      </c>
+      <c r="D14" s="4">
+        <v>23</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2000.45</v>
+      </c>
+      <c r="F14" s="6">
+        <v>42000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5.55</v>
+      </c>
+      <c r="H14" s="4">
+        <v>32113</v>
+      </c>
+      <c r="I14" s="3">
+        <v>146839</v>
+      </c>
+      <c r="J14" s="3">
+        <v>483722</v>
+      </c>
+      <c r="K14" s="6">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1820</v>
+      </c>
+      <c r="F15" s="6">
+        <v>42100</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="H15" s="4">
+        <v>11607</v>
+      </c>
+      <c r="I15" s="3">
+        <v>15834</v>
+      </c>
+      <c r="J15" s="3">
+        <v>160555</v>
+      </c>
+      <c r="K15" s="6">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1690.85</v>
+      </c>
+      <c r="F16" s="6">
+        <v>42200</v>
+      </c>
+      <c r="G16" s="3">
+        <v>6.35</v>
+      </c>
+      <c r="H16" s="4">
+        <v>18577</v>
+      </c>
+      <c r="I16" s="3">
+        <v>29090</v>
+      </c>
+      <c r="J16" s="3">
+        <v>210147</v>
+      </c>
+      <c r="K16" s="6">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1563.65</v>
+      </c>
+      <c r="F17" s="6">
+        <v>42300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="H17" s="4">
+        <v>18029</v>
+      </c>
+      <c r="I17" s="3">
+        <v>35214</v>
+      </c>
+      <c r="J17" s="3">
+        <v>209708</v>
+      </c>
+      <c r="K17" s="6">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>50</v>
+      </c>
+      <c r="C18" s="3">
         <v>47</v>
       </c>
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1267.4000000000001</v>
-      </c>
-      <c r="F9" s="6">
-        <v>18200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="H9" s="5">
-        <v>-412</v>
-      </c>
-      <c r="I9" s="3">
-        <v>5952</v>
-      </c>
-      <c r="J9" s="3">
-        <v>65688</v>
-      </c>
-      <c r="K9" s="6">
-        <v>19428.3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="D18" s="4">
+        <v>44</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1596.05</v>
+      </c>
+      <c r="F18" s="6">
+        <v>42400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="H18" s="4">
+        <v>15806</v>
+      </c>
+      <c r="I18" s="3">
+        <v>26839</v>
+      </c>
+      <c r="J18" s="3">
+        <v>188671</v>
+      </c>
+      <c r="K18" s="6">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>295</v>
+      </c>
+      <c r="C19" s="3">
+        <v>583</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-62</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1491.75</v>
+      </c>
+      <c r="F19" s="6">
+        <v>42500</v>
+      </c>
+      <c r="G19" s="3">
+        <v>8.25</v>
+      </c>
+      <c r="H19" s="4">
+        <v>20533</v>
+      </c>
+      <c r="I19" s="3">
+        <v>127320</v>
+      </c>
+      <c r="J19" s="3">
+        <v>579039</v>
+      </c>
+      <c r="K19" s="6">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>146</v>
+      </c>
+      <c r="C20" s="3">
+        <v>98</v>
+      </c>
+      <c r="D20" s="4">
+        <v>79</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1390.4</v>
+      </c>
+      <c r="F20" s="6">
+        <v>42600</v>
+      </c>
+      <c r="G20" s="3">
+        <v>9.35</v>
+      </c>
+      <c r="H20" s="4">
+        <v>22958</v>
+      </c>
+      <c r="I20" s="3">
+        <v>39065</v>
+      </c>
+      <c r="J20" s="3">
+        <v>206372</v>
+      </c>
+      <c r="K20" s="6">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>101</v>
+      </c>
+      <c r="C21" s="3">
+        <v>43</v>
+      </c>
+      <c r="D21" s="4">
         <v>6</v>
       </c>
-      <c r="D10" s="5">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1240</v>
-      </c>
-      <c r="F10" s="6">
-        <v>18250</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H10" s="4">
-        <v>685</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1167</v>
-      </c>
-      <c r="J10" s="3">
-        <v>26547</v>
-      </c>
-      <c r="K10" s="6">
-        <v>19428.3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1309</v>
-      </c>
-      <c r="F11" s="6">
-        <v>18300</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="H11" s="5">
-        <v>-2232</v>
-      </c>
-      <c r="I11" s="3">
-        <v>8331</v>
-      </c>
-      <c r="J11" s="3">
-        <v>63904</v>
-      </c>
-      <c r="K11" s="6">
-        <v>19428.3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>4</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1235</v>
-      </c>
-      <c r="F12" s="6">
-        <v>18350</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="H12" s="4">
-        <v>646</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1333</v>
-      </c>
-      <c r="J12" s="3">
-        <v>34013</v>
-      </c>
-      <c r="K12" s="6">
-        <v>19428.3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3">
-        <v>190</v>
-      </c>
-      <c r="D13" s="5">
-        <v>-3</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1103</v>
-      </c>
-      <c r="F13" s="6">
-        <v>18400</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1.25</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1830</v>
-      </c>
-      <c r="I13" s="3">
-        <v>14038</v>
-      </c>
-      <c r="J13" s="3">
-        <v>109522</v>
-      </c>
-      <c r="K13" s="6">
-        <v>19428.3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1035</v>
-      </c>
-      <c r="F14" s="6">
-        <v>18450</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="H14" s="5">
-        <v>-230</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1635</v>
-      </c>
-      <c r="J14" s="3">
-        <v>35466</v>
-      </c>
-      <c r="K14" s="6">
-        <v>19428.3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
-        <v>80</v>
-      </c>
-      <c r="C15" s="3">
-        <v>289</v>
-      </c>
-      <c r="D15" s="4">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3">
-        <v>991.05</v>
-      </c>
-      <c r="F15" s="6">
-        <v>18500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="H15" s="4">
-        <v>34762</v>
-      </c>
-      <c r="I15" s="3">
-        <v>93706</v>
-      </c>
-      <c r="J15" s="3">
-        <v>241398</v>
-      </c>
-      <c r="K15" s="6">
-        <v>19428.3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1047.4000000000001</v>
-      </c>
-      <c r="F16" s="6">
-        <v>18550</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="H16" s="4">
-        <v>1425</v>
-      </c>
-      <c r="I16" s="3">
-        <v>3841</v>
-      </c>
-      <c r="J16" s="3">
-        <v>47065</v>
-      </c>
-      <c r="K16" s="6">
-        <v>19428.3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
-        <v>139</v>
-      </c>
-      <c r="C17" s="3">
-        <v>379</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-4</v>
-      </c>
-      <c r="E17" s="3">
-        <v>891.85</v>
-      </c>
-      <c r="F17" s="6">
-        <v>18600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="H17" s="4">
-        <v>23752</v>
-      </c>
-      <c r="I17" s="3">
-        <v>35116</v>
-      </c>
-      <c r="J17" s="3">
-        <v>146564</v>
-      </c>
-      <c r="K17" s="6">
-        <v>19428.3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3">
-        <v>40</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>811.1</v>
-      </c>
-      <c r="F18" s="6">
-        <v>18650</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="H18" s="4">
-        <v>3020</v>
-      </c>
-      <c r="I18" s="3">
-        <v>4619</v>
-      </c>
-      <c r="J18" s="3">
-        <v>64416</v>
-      </c>
-      <c r="K18" s="6">
-        <v>19428.3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="3">
-        <v>23</v>
-      </c>
-      <c r="C19" s="3">
-        <v>372</v>
-      </c>
-      <c r="D19" s="4">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3">
-        <v>775.25</v>
-      </c>
-      <c r="F19" s="6">
-        <v>18700</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="H19" s="4">
-        <v>5851</v>
-      </c>
-      <c r="I19" s="3">
-        <v>26236</v>
-      </c>
-      <c r="J19" s="3">
-        <v>228676</v>
-      </c>
-      <c r="K19" s="6">
-        <v>19428.3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>22</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>822.15</v>
-      </c>
-      <c r="F20" s="6">
-        <v>18750</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="H20" s="4">
-        <v>3669</v>
-      </c>
-      <c r="I20" s="3">
-        <v>10745</v>
-      </c>
-      <c r="J20" s="3">
-        <v>101757</v>
-      </c>
-      <c r="K20" s="6">
-        <v>19428.3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
-        <v>110</v>
-      </c>
-      <c r="C21" s="3">
-        <v>328</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-3</v>
-      </c>
       <c r="E21" s="3">
-        <v>680</v>
+        <v>1244.6500000000001</v>
       </c>
       <c r="F21" s="6">
-        <v>18800</v>
+        <v>42700</v>
       </c>
       <c r="G21" s="3">
-        <v>2.25</v>
+        <v>10.7</v>
       </c>
       <c r="H21" s="4">
-        <v>8834</v>
+        <v>39809</v>
       </c>
       <c r="I21" s="3">
-        <v>30532</v>
+        <v>59752</v>
       </c>
       <c r="J21" s="3">
-        <v>320886</v>
+        <v>246628</v>
       </c>
       <c r="K21" s="6">
-        <v>19428.3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="C22" s="3">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="D22" s="4">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="E22" s="3">
-        <v>621.04999999999995</v>
+        <v>1185.5</v>
       </c>
       <c r="F22" s="6">
-        <v>18850</v>
+        <v>42800</v>
       </c>
       <c r="G22" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="H22" s="5">
-        <v>-2372</v>
+        <v>12.35</v>
+      </c>
+      <c r="H22" s="4">
+        <v>22915</v>
       </c>
       <c r="I22" s="3">
-        <v>13863</v>
+        <v>40196</v>
       </c>
       <c r="J22" s="3">
-        <v>150516</v>
+        <v>300053</v>
       </c>
       <c r="K22" s="6">
-        <v>19428.3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
-        <v>180</v>
+        <v>269</v>
       </c>
       <c r="C23" s="3">
-        <v>368</v>
+        <v>65</v>
       </c>
       <c r="D23" s="4">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E23" s="3">
-        <v>583.95000000000005</v>
+        <v>1080</v>
       </c>
       <c r="F23" s="6">
-        <v>18900</v>
+        <v>42900</v>
       </c>
       <c r="G23" s="3">
-        <v>3.05</v>
+        <v>14.65</v>
       </c>
       <c r="H23" s="4">
-        <v>11579</v>
+        <v>19606</v>
       </c>
       <c r="I23" s="3">
-        <v>30394</v>
+        <v>32030</v>
       </c>
       <c r="J23" s="3">
-        <v>375492</v>
+        <v>284509</v>
       </c>
       <c r="K23" s="6">
-        <v>19428.3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
-        <v>122</v>
+        <v>13643</v>
       </c>
       <c r="C24" s="3">
-        <v>51</v>
+        <v>3263</v>
       </c>
       <c r="D24" s="4">
-        <v>6</v>
+        <v>1707</v>
       </c>
       <c r="E24" s="3">
-        <v>539.29999999999995</v>
+        <v>997.65</v>
       </c>
       <c r="F24" s="6">
-        <v>18950</v>
+        <v>43000</v>
       </c>
       <c r="G24" s="3">
-        <v>3.65</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H24" s="4">
-        <v>14195</v>
+        <v>27717</v>
       </c>
       <c r="I24" s="3">
-        <v>24429</v>
+        <v>140079</v>
       </c>
       <c r="J24" s="3">
-        <v>253287</v>
+        <v>920151</v>
       </c>
       <c r="K24" s="6">
-        <v>19428.3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
-        <v>7594</v>
+        <v>1904</v>
       </c>
       <c r="C25" s="3">
-        <v>4623</v>
+        <v>295</v>
       </c>
       <c r="D25" s="4">
-        <v>849</v>
+        <v>277</v>
       </c>
       <c r="E25" s="3">
-        <v>480.35</v>
+        <v>898.05</v>
       </c>
       <c r="F25" s="6">
-        <v>19000</v>
+        <v>43100</v>
       </c>
       <c r="G25" s="3">
-        <v>4.8</v>
+        <v>21.55</v>
       </c>
       <c r="H25" s="4">
-        <v>27037</v>
+        <v>32392</v>
       </c>
       <c r="I25" s="3">
-        <v>96683</v>
+        <v>53761</v>
       </c>
       <c r="J25" s="3">
-        <v>718761</v>
+        <v>394346</v>
       </c>
       <c r="K25" s="6">
-        <v>19428.3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
-        <v>399</v>
+        <v>4496</v>
       </c>
       <c r="C26" s="3">
-        <v>66</v>
+        <v>893</v>
       </c>
       <c r="D26" s="4">
-        <v>45</v>
+        <v>767</v>
       </c>
       <c r="E26" s="3">
-        <v>433.85</v>
+        <v>804</v>
       </c>
       <c r="F26" s="6">
-        <v>19050</v>
+        <v>43200</v>
       </c>
       <c r="G26" s="3">
-        <v>6.4</v>
+        <v>27.2</v>
       </c>
       <c r="H26" s="4">
-        <v>10329</v>
+        <v>38099</v>
       </c>
       <c r="I26" s="3">
-        <v>19650</v>
+        <v>64135</v>
       </c>
       <c r="J26" s="3">
-        <v>325412</v>
+        <v>616174</v>
       </c>
       <c r="K26" s="6">
-        <v>19428.3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
-        <v>6564</v>
+        <v>8349</v>
       </c>
       <c r="C27" s="3">
-        <v>1112</v>
+        <v>1447</v>
       </c>
       <c r="D27" s="4">
-        <v>694</v>
+        <v>1092</v>
       </c>
       <c r="E27" s="3">
-        <v>381.25</v>
+        <v>715.45</v>
       </c>
       <c r="F27" s="6">
-        <v>19100</v>
+        <v>43300</v>
       </c>
       <c r="G27" s="3">
-        <v>8.0500000000000007</v>
+        <v>35.1</v>
       </c>
       <c r="H27" s="4">
-        <v>35822</v>
+        <v>33901</v>
       </c>
       <c r="I27" s="3">
-        <v>74178</v>
+        <v>94808</v>
       </c>
       <c r="J27" s="3">
-        <v>729932</v>
+        <v>582828</v>
       </c>
       <c r="K27" s="6">
-        <v>19428.3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
-        <v>2807</v>
+        <v>29310</v>
       </c>
       <c r="C28" s="3">
-        <v>369</v>
+        <v>3602</v>
       </c>
       <c r="D28" s="4">
-        <v>99</v>
+        <v>3393</v>
       </c>
       <c r="E28" s="3">
-        <v>334.25</v>
+        <v>623.29999999999995</v>
       </c>
       <c r="F28" s="6">
-        <v>19150</v>
+        <v>43400</v>
       </c>
       <c r="G28" s="3">
-        <v>11.1</v>
+        <v>45.85</v>
       </c>
       <c r="H28" s="4">
-        <v>23791</v>
+        <v>48552</v>
       </c>
       <c r="I28" s="3">
-        <v>41355</v>
+        <v>76722</v>
       </c>
       <c r="J28" s="3">
-        <v>634853</v>
+        <v>723917</v>
       </c>
       <c r="K28" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
-        <v>34052</v>
+        <v>176531</v>
       </c>
       <c r="C29" s="3">
-        <v>2986</v>
+        <v>18454</v>
       </c>
       <c r="D29" s="4">
-        <v>1313</v>
+        <v>14254</v>
       </c>
       <c r="E29" s="3">
-        <v>290.14999999999998</v>
+        <v>537</v>
       </c>
       <c r="F29" s="6">
-        <v>19200</v>
+        <v>43500</v>
       </c>
       <c r="G29" s="3">
-        <v>15.3</v>
+        <v>60.2</v>
       </c>
       <c r="H29" s="4">
-        <v>37699</v>
+        <v>111116</v>
       </c>
       <c r="I29" s="3">
-        <v>79833</v>
+        <v>188458</v>
       </c>
       <c r="J29" s="3">
-        <v>1061941</v>
+        <v>1421472</v>
       </c>
       <c r="K29" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
-        <v>18163</v>
+        <v>179833</v>
       </c>
       <c r="C30" s="3">
-        <v>843</v>
+        <v>17905</v>
       </c>
       <c r="D30" s="4">
-        <v>153</v>
+        <v>16571</v>
       </c>
       <c r="E30" s="3">
-        <v>246.95</v>
+        <v>457</v>
       </c>
       <c r="F30" s="6">
-        <v>19250</v>
+        <v>43600</v>
       </c>
       <c r="G30" s="3">
-        <v>21.4</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="H30" s="4">
-        <v>14889</v>
+        <v>113974</v>
       </c>
       <c r="I30" s="3">
-        <v>33990</v>
+        <v>141870</v>
       </c>
       <c r="J30" s="3">
-        <v>746689</v>
+        <v>1002306</v>
       </c>
       <c r="K30" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
-        <v>193186</v>
+        <v>502706</v>
       </c>
       <c r="C31" s="3">
-        <v>7548</v>
+        <v>34302</v>
       </c>
       <c r="D31" s="4">
-        <v>3487</v>
+        <v>29617</v>
       </c>
       <c r="E31" s="3">
-        <v>204.95</v>
+        <v>382.3</v>
       </c>
       <c r="F31" s="6">
-        <v>19300</v>
+        <v>43700</v>
       </c>
       <c r="G31" s="3">
-        <v>29.4</v>
+        <v>104.85</v>
       </c>
       <c r="H31" s="4">
-        <v>43555</v>
+        <v>108369</v>
       </c>
       <c r="I31" s="3">
-        <v>95102</v>
+        <v>149973</v>
       </c>
       <c r="J31" s="3">
-        <v>1690348</v>
+        <v>1277984</v>
       </c>
       <c r="K31" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
-        <v>178593</v>
+        <v>1693737</v>
       </c>
       <c r="C32" s="3">
-        <v>5616</v>
+        <v>106661</v>
       </c>
       <c r="D32" s="4">
-        <v>3955</v>
+        <v>101030</v>
       </c>
       <c r="E32" s="3">
-        <v>166.6</v>
+        <v>314.64999999999998</v>
       </c>
       <c r="F32" s="6">
-        <v>19350</v>
+        <v>43800</v>
       </c>
       <c r="G32" s="3">
-        <v>40.799999999999997</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="H32" s="4">
-        <v>14292</v>
+        <v>170037</v>
       </c>
       <c r="I32" s="3">
-        <v>30728</v>
+        <v>229105</v>
       </c>
       <c r="J32" s="3">
-        <v>1131085</v>
+        <v>2638829</v>
       </c>
       <c r="K32" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
-        <v>1024669</v>
+        <v>1766976</v>
       </c>
       <c r="C33" s="3">
-        <v>30823</v>
+        <v>139985</v>
       </c>
       <c r="D33" s="4">
-        <v>21686</v>
+        <v>134835</v>
       </c>
       <c r="E33" s="3">
-        <v>130.25</v>
+        <v>252.55</v>
       </c>
       <c r="F33" s="6">
-        <v>19400</v>
+        <v>43900</v>
       </c>
       <c r="G33" s="3">
-        <v>56.45</v>
+        <v>175.7</v>
       </c>
       <c r="H33" s="4">
-        <v>75413</v>
+        <v>172369</v>
       </c>
       <c r="I33" s="3">
-        <v>136406</v>
+        <v>219620</v>
       </c>
       <c r="J33" s="3">
-        <v>3056991</v>
+        <v>2818011</v>
       </c>
       <c r="K33" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
-        <v>1581534</v>
+        <v>2754837</v>
       </c>
       <c r="C34" s="3">
-        <v>37115</v>
+        <v>293834</v>
       </c>
       <c r="D34" s="4">
-        <v>31850</v>
+        <v>262131</v>
       </c>
       <c r="E34" s="3">
-        <v>99.75</v>
+        <v>199.2</v>
       </c>
       <c r="F34" s="6">
-        <v>19450</v>
+        <v>44000</v>
       </c>
       <c r="G34" s="3">
-        <v>75.599999999999994</v>
+        <v>222.2</v>
       </c>
       <c r="H34" s="4">
-        <v>17832</v>
+        <v>147697</v>
       </c>
       <c r="I34" s="3">
-        <v>37588</v>
+        <v>273044</v>
       </c>
       <c r="J34" s="3">
-        <v>2821472</v>
+        <v>3329909</v>
       </c>
       <c r="K34" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
-        <v>3900123</v>
+        <v>1001543</v>
       </c>
       <c r="C35" s="3">
-        <v>163145</v>
+        <v>114735</v>
       </c>
       <c r="D35" s="4">
-        <v>107907</v>
+        <v>99675</v>
       </c>
       <c r="E35" s="3">
-        <v>74</v>
+        <v>153.44999999999999</v>
       </c>
       <c r="F35" s="6">
-        <v>19500</v>
+        <v>44100</v>
       </c>
       <c r="G35" s="3">
-        <v>99</v>
+        <v>276.7</v>
       </c>
       <c r="H35" s="4">
-        <v>16373</v>
+        <v>47242</v>
       </c>
       <c r="I35" s="3">
-        <v>105411</v>
+        <v>95509</v>
       </c>
       <c r="J35" s="3">
-        <v>4347424</v>
+        <v>1128984</v>
       </c>
       <c r="K35" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
-        <v>1817553</v>
+        <v>1130816</v>
       </c>
       <c r="C36" s="3">
-        <v>105744</v>
+        <v>185250</v>
       </c>
       <c r="D36" s="4">
-        <v>71232</v>
+        <v>141622</v>
       </c>
       <c r="E36" s="3">
-        <v>52.8</v>
+        <v>115</v>
       </c>
       <c r="F36" s="6">
-        <v>19550</v>
+        <v>44200</v>
       </c>
       <c r="G36" s="3">
-        <v>128.35</v>
+        <v>338.05</v>
       </c>
       <c r="H36" s="5">
-        <v>-9487</v>
+        <v>-363</v>
       </c>
       <c r="I36" s="3">
-        <v>18935</v>
+        <v>82131</v>
       </c>
       <c r="J36" s="3">
-        <v>1064527</v>
+        <v>853036</v>
       </c>
       <c r="K36" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
-        <v>2607173</v>
+        <v>1057815</v>
       </c>
       <c r="C37" s="3">
-        <v>186209</v>
+        <v>186739</v>
       </c>
       <c r="D37" s="4">
-        <v>79221</v>
+        <v>98799</v>
       </c>
       <c r="E37" s="3">
-        <v>36.799999999999997</v>
+        <v>85.45</v>
       </c>
       <c r="F37" s="6">
-        <v>19600</v>
+        <v>44300</v>
       </c>
       <c r="G37" s="3">
-        <v>159.80000000000001</v>
+        <v>409.65</v>
       </c>
       <c r="H37" s="5">
-        <v>-16793</v>
+        <v>-24982</v>
       </c>
       <c r="I37" s="3">
-        <v>44985</v>
+        <v>54426</v>
       </c>
       <c r="J37" s="3">
-        <v>1164255</v>
+        <v>516953</v>
       </c>
       <c r="K37" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
-        <v>1103214</v>
+        <v>915130</v>
       </c>
       <c r="C38" s="3">
-        <v>80551</v>
+        <v>163050</v>
       </c>
       <c r="D38" s="4">
-        <v>36800</v>
+        <v>50986</v>
       </c>
       <c r="E38" s="3">
-        <v>24.6</v>
+        <v>63.3</v>
       </c>
       <c r="F38" s="6">
-        <v>19650</v>
+        <v>44400</v>
       </c>
       <c r="G38" s="3">
-        <v>198.6</v>
+        <v>487.4</v>
       </c>
       <c r="H38" s="5">
-        <v>-262</v>
+        <v>-19928</v>
       </c>
       <c r="I38" s="3">
-        <v>6996</v>
+        <v>40057</v>
       </c>
       <c r="J38" s="3">
-        <v>232155</v>
+        <v>252246</v>
       </c>
       <c r="K38" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="3">
-        <v>1468652</v>
+        <v>1362669</v>
       </c>
       <c r="C39" s="3">
-        <v>118375</v>
+        <v>262749</v>
       </c>
       <c r="D39" s="4">
-        <v>34972</v>
+        <v>27114</v>
       </c>
       <c r="E39" s="3">
-        <v>16.3</v>
+        <v>46.95</v>
       </c>
       <c r="F39" s="6">
-        <v>19700</v>
+        <v>44500</v>
       </c>
       <c r="G39" s="3">
-        <v>239.2</v>
+        <v>570.25</v>
       </c>
       <c r="H39" s="5">
-        <v>-2471</v>
+        <v>-18276</v>
       </c>
       <c r="I39" s="3">
-        <v>14391</v>
+        <v>87790</v>
       </c>
       <c r="J39" s="3">
-        <v>219624</v>
+        <v>286088</v>
       </c>
       <c r="K39" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
-        <v>849549</v>
+        <v>812505</v>
       </c>
       <c r="C40" s="3">
-        <v>63192</v>
+        <v>149102</v>
       </c>
       <c r="D40" s="4">
-        <v>33964</v>
+        <v>35343</v>
       </c>
       <c r="E40" s="3">
-        <v>10.1</v>
+        <v>35</v>
       </c>
       <c r="F40" s="6">
-        <v>19750</v>
+        <v>44600</v>
       </c>
       <c r="G40" s="3">
-        <v>282.95</v>
-      </c>
-      <c r="H40" s="4">
-        <v>175</v>
+        <v>656.55</v>
+      </c>
+      <c r="H40" s="5">
+        <v>-11056</v>
       </c>
       <c r="I40" s="3">
-        <v>2052</v>
+        <v>19510</v>
       </c>
       <c r="J40" s="3">
-        <v>27548</v>
+        <v>74956</v>
       </c>
       <c r="K40" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
-        <v>1240961</v>
+        <v>713737</v>
       </c>
       <c r="C41" s="3">
-        <v>131837</v>
+        <v>137368</v>
       </c>
       <c r="D41" s="4">
-        <v>79828</v>
+        <v>29492</v>
       </c>
       <c r="E41" s="3">
-        <v>6.5</v>
+        <v>26.95</v>
       </c>
       <c r="F41" s="6">
-        <v>19800</v>
+        <v>44700</v>
       </c>
       <c r="G41" s="3">
-        <v>330.35</v>
+        <v>748.5</v>
       </c>
       <c r="H41" s="5">
-        <v>-1756</v>
+        <v>-6696</v>
       </c>
       <c r="I41" s="3">
-        <v>5034</v>
+        <v>12895</v>
       </c>
       <c r="J41" s="3">
-        <v>38747</v>
+        <v>40255</v>
       </c>
       <c r="K41" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
-        <v>834887</v>
+        <v>854614</v>
       </c>
       <c r="C42" s="3">
-        <v>70330</v>
+        <v>141199</v>
       </c>
       <c r="D42" s="4">
-        <v>18739</v>
+        <v>6649</v>
       </c>
       <c r="E42" s="3">
-        <v>4.8</v>
+        <v>21.3</v>
       </c>
       <c r="F42" s="6">
-        <v>19850</v>
+        <v>44800</v>
       </c>
       <c r="G42" s="3">
-        <v>377.95</v>
+        <v>843.35</v>
       </c>
       <c r="H42" s="5">
-        <v>-208</v>
+        <v>-5960</v>
       </c>
       <c r="I42" s="3">
-        <v>784</v>
+        <v>13419</v>
       </c>
       <c r="J42" s="3">
-        <v>7969</v>
+        <v>28984</v>
       </c>
       <c r="K42" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
-        <v>958316</v>
+        <v>553944</v>
       </c>
       <c r="C43" s="3">
-        <v>78021</v>
+        <v>94901</v>
       </c>
       <c r="D43" s="4">
-        <v>23312</v>
+        <v>19029</v>
       </c>
       <c r="E43" s="3">
-        <v>3.65</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F43" s="6">
-        <v>19900</v>
+        <v>44900</v>
       </c>
       <c r="G43" s="3">
-        <v>427</v>
+        <v>940.4</v>
       </c>
       <c r="H43" s="5">
-        <v>-205</v>
+        <v>-705</v>
       </c>
       <c r="I43" s="3">
-        <v>1528</v>
+        <v>9153</v>
       </c>
       <c r="J43" s="3">
-        <v>5664</v>
+        <v>7714</v>
       </c>
       <c r="K43" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
-        <v>525838</v>
+        <v>824872</v>
       </c>
       <c r="C44" s="3">
-        <v>66155</v>
+        <v>210925</v>
       </c>
       <c r="D44" s="4">
-        <v>37487</v>
+        <v>30620</v>
       </c>
       <c r="E44" s="3">
-        <v>2.7</v>
+        <v>14.75</v>
       </c>
       <c r="F44" s="6">
-        <v>19950</v>
+        <v>45000</v>
       </c>
       <c r="G44" s="3">
-        <v>471.8</v>
-      </c>
-      <c r="H44" s="4">
-        <v>15</v>
+        <v>1034.8499999999999</v>
+      </c>
+      <c r="H44" s="5">
+        <v>-5747</v>
       </c>
       <c r="I44" s="3">
-        <v>367</v>
+        <v>34353</v>
       </c>
       <c r="J44" s="3">
-        <v>380</v>
+        <v>37201</v>
       </c>
       <c r="K44" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
-        <v>927441</v>
+        <v>404689</v>
       </c>
       <c r="C45" s="3">
-        <v>134480</v>
+        <v>66697</v>
       </c>
       <c r="D45" s="4">
-        <v>68115</v>
+        <v>7069</v>
       </c>
       <c r="E45" s="3">
-        <v>2.4</v>
+        <v>12.4</v>
       </c>
       <c r="F45" s="6">
-        <v>20000</v>
+        <v>45100</v>
       </c>
       <c r="G45" s="3">
-        <v>524.4</v>
+        <v>1131.2</v>
       </c>
       <c r="H45" s="5">
-        <v>-175</v>
+        <v>-575</v>
       </c>
       <c r="I45" s="3">
-        <v>2776</v>
+        <v>3428</v>
       </c>
       <c r="J45" s="3">
-        <v>7008</v>
+        <v>2326</v>
       </c>
       <c r="K45" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
-        <v>300887</v>
+        <v>383030</v>
       </c>
       <c r="C46" s="3">
-        <v>32621</v>
+        <v>88684</v>
       </c>
       <c r="D46" s="4">
-        <v>18144</v>
+        <v>21513</v>
       </c>
       <c r="E46" s="3">
-        <v>1.95</v>
+        <v>11</v>
       </c>
       <c r="F46" s="6">
-        <v>20050</v>
+        <v>45200</v>
       </c>
       <c r="G46" s="3">
-        <v>589.35</v>
-      </c>
-      <c r="H46" s="4">
-        <v>73</v>
+        <v>1234.45</v>
+      </c>
+      <c r="H46" s="5">
+        <v>-267</v>
       </c>
       <c r="I46" s="3">
-        <v>90</v>
+        <v>3372</v>
       </c>
       <c r="J46" s="3">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="K46" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
-        <v>550134</v>
+        <v>361781</v>
       </c>
       <c r="C47" s="3">
-        <v>56442</v>
+        <v>66343</v>
       </c>
       <c r="D47" s="5">
-        <v>-16096</v>
+        <v>-17438</v>
       </c>
       <c r="E47" s="3">
-        <v>1.75</v>
+        <v>9.9</v>
       </c>
       <c r="F47" s="6">
-        <v>20100</v>
+        <v>45300</v>
       </c>
       <c r="G47" s="3">
-        <v>608.75</v>
-      </c>
-      <c r="H47" s="4">
-        <v>12</v>
+        <v>1350</v>
+      </c>
+      <c r="H47" s="5">
+        <v>-131</v>
       </c>
       <c r="I47" s="3">
-        <v>379</v>
+        <v>1844</v>
       </c>
       <c r="J47" s="3">
-        <v>127</v>
+        <v>552</v>
       </c>
       <c r="K47" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
-        <v>194113</v>
+        <v>310698</v>
       </c>
       <c r="C48" s="3">
-        <v>28871</v>
+        <v>59804</v>
       </c>
       <c r="D48" s="4">
-        <v>10440</v>
+        <v>20471</v>
       </c>
       <c r="E48" s="3">
-        <v>1.6</v>
+        <v>8.85</v>
       </c>
       <c r="F48" s="6">
-        <v>20150</v>
+        <v>45400</v>
       </c>
       <c r="G48" s="3">
-        <v>657.55</v>
-      </c>
-      <c r="H48" s="5">
-        <v>0</v>
+        <v>1440.65</v>
+      </c>
+      <c r="H48" s="4">
+        <v>28</v>
       </c>
       <c r="I48" s="3">
-        <v>2</v>
+        <v>2028</v>
       </c>
       <c r="J48" s="3">
-        <v>4</v>
+        <v>575</v>
       </c>
       <c r="K48" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
-        <v>428482</v>
+        <v>576699</v>
       </c>
       <c r="C49" s="3">
-        <v>48376</v>
-      </c>
-      <c r="D49" s="5">
-        <v>-4948</v>
+        <v>161156</v>
+      </c>
+      <c r="D49" s="4">
+        <v>18745</v>
       </c>
       <c r="E49" s="3">
-        <v>1.6</v>
+        <v>8.15</v>
       </c>
       <c r="F49" s="6">
-        <v>20200</v>
+        <v>45500</v>
       </c>
       <c r="G49" s="3">
-        <v>720</v>
-      </c>
-      <c r="H49" s="4">
-        <v>2</v>
+        <v>1540</v>
+      </c>
+      <c r="H49" s="5">
+        <v>-461</v>
       </c>
       <c r="I49" s="3">
-        <v>128</v>
+        <v>6970</v>
       </c>
       <c r="J49" s="3">
-        <v>65</v>
+        <v>4204</v>
       </c>
       <c r="K49" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
-        <v>126057</v>
+        <v>237854</v>
       </c>
       <c r="C50" s="3">
-        <v>18140</v>
-      </c>
-      <c r="D50" s="4">
-        <v>10444</v>
+        <v>42248</v>
+      </c>
+      <c r="D50" s="5">
+        <v>-13275</v>
       </c>
       <c r="E50" s="3">
-        <v>1.5</v>
+        <v>7.45</v>
       </c>
       <c r="F50" s="6">
-        <v>20250</v>
+        <v>45600</v>
       </c>
       <c r="G50" s="3">
-        <v>670</v>
-      </c>
-      <c r="H50" s="4">
-        <v>0</v>
+        <v>1621</v>
+      </c>
+      <c r="H50" s="5">
+        <v>-25</v>
       </c>
       <c r="I50" s="3">
-        <v>1</v>
+        <v>896</v>
       </c>
       <c r="J50" s="3">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="K50" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="3">
-        <v>252406</v>
+        <v>198826</v>
       </c>
       <c r="C51" s="3">
-        <v>53632</v>
+        <v>48112</v>
       </c>
       <c r="D51" s="4">
-        <v>30395</v>
+        <v>6617</v>
       </c>
       <c r="E51" s="3">
-        <v>1.55</v>
+        <v>6.95</v>
       </c>
       <c r="F51" s="6">
-        <v>20300</v>
+        <v>45700</v>
       </c>
       <c r="G51" s="3">
-        <v>833.4</v>
-      </c>
-      <c r="H51" s="5">
-        <v>-1</v>
+        <v>1722.25</v>
+      </c>
+      <c r="H51" s="4">
+        <v>24</v>
       </c>
       <c r="I51" s="3">
-        <v>45</v>
+        <v>2783</v>
       </c>
       <c r="J51" s="3">
-        <v>20</v>
+        <v>395</v>
       </c>
       <c r="K51" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="3">
-        <v>65995</v>
+        <v>163716</v>
       </c>
       <c r="C52" s="3">
-        <v>2936</v>
-      </c>
-      <c r="D52" s="4">
-        <v>1336</v>
+        <v>37838</v>
+      </c>
+      <c r="D52" s="5">
+        <v>-3850</v>
       </c>
       <c r="E52" s="3">
-        <v>1.75</v>
+        <v>6.4</v>
       </c>
       <c r="F52" s="6">
-        <v>20350</v>
+        <v>45800</v>
       </c>
       <c r="G52" s="3">
-        <v>725.15</v>
-      </c>
-      <c r="H52" s="4">
-        <v>0</v>
+        <v>1839.85</v>
+      </c>
+      <c r="H52" s="5">
+        <v>-27</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>498</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="K52" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="3">
-        <v>177740</v>
+        <v>163810</v>
       </c>
       <c r="C53" s="3">
-        <v>14086</v>
-      </c>
-      <c r="D53" s="4">
-        <v>877</v>
+        <v>27251</v>
+      </c>
+      <c r="D53" s="5">
+        <v>-16312</v>
       </c>
       <c r="E53" s="3">
-        <v>1.45</v>
+        <v>6.1</v>
       </c>
       <c r="F53" s="6">
-        <v>20400</v>
+        <v>45900</v>
       </c>
       <c r="G53" s="3">
-        <v>906</v>
-      </c>
-      <c r="H53" s="4">
-        <v>1</v>
+        <v>1934.35</v>
+      </c>
+      <c r="H53" s="5">
+        <v>-28</v>
       </c>
       <c r="I53" s="3">
-        <v>19</v>
+        <v>649</v>
       </c>
       <c r="J53" s="3">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="K53" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="3">
-        <v>55956</v>
+        <v>544561</v>
       </c>
       <c r="C54" s="3">
-        <v>2226</v>
+        <v>221680</v>
       </c>
       <c r="D54" s="4">
-        <v>1659</v>
+        <v>79595</v>
       </c>
       <c r="E54" s="3">
-        <v>1.55</v>
+        <v>5.75</v>
       </c>
       <c r="F54" s="6">
-        <v>20450</v>
+        <v>46000</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="4">
-        <v>0</v>
+        <v>2026.85</v>
+      </c>
+      <c r="H54" s="5">
+        <v>-59</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>3974</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>851</v>
       </c>
       <c r="K54" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="3">
-        <v>373531</v>
+        <v>115948</v>
       </c>
       <c r="C55" s="3">
-        <v>61359</v>
+        <v>26427</v>
       </c>
       <c r="D55" s="4">
-        <v>2725</v>
+        <v>4098</v>
       </c>
       <c r="E55" s="3">
-        <v>1.4</v>
+        <v>5.35</v>
       </c>
       <c r="F55" s="6">
-        <v>20500</v>
+        <v>46100</v>
       </c>
       <c r="G55" s="3">
-        <v>1022.2</v>
-      </c>
-      <c r="H55" s="4">
-        <v>7</v>
+        <v>2205.15</v>
+      </c>
+      <c r="H55" s="5">
+        <v>-2</v>
       </c>
       <c r="I55" s="3">
-        <v>440</v>
+        <v>129</v>
       </c>
       <c r="J55" s="3">
-        <v>137</v>
+        <v>6</v>
       </c>
       <c r="K55" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="3">
-        <v>49636</v>
+        <v>96249</v>
       </c>
       <c r="C56" s="3">
-        <v>1738</v>
-      </c>
-      <c r="D56" s="4">
-        <v>607</v>
+        <v>25933</v>
+      </c>
+      <c r="D56" s="5">
+        <v>-12370</v>
       </c>
       <c r="E56" s="3">
-        <v>1.4</v>
+        <v>5.25</v>
       </c>
       <c r="F56" s="6">
-        <v>20550</v>
+        <v>46200</v>
       </c>
       <c r="G56" s="3">
-        <v>0</v>
-      </c>
-      <c r="H56" s="4">
-        <v>0</v>
+        <v>2315.5</v>
+      </c>
+      <c r="H56" s="5">
+        <v>-3</v>
       </c>
       <c r="I56" s="3">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="J56" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K56" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" s="3">
-        <v>119254</v>
+        <v>85202</v>
       </c>
       <c r="C57" s="3">
-        <v>6698</v>
-      </c>
-      <c r="D57" s="5">
-        <v>-1922</v>
+        <v>25329</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2569</v>
       </c>
       <c r="E57" s="3">
-        <v>1.5</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="F57" s="6">
-        <v>20600</v>
+        <v>46300</v>
       </c>
       <c r="G57" s="3">
-        <v>1064.55</v>
+        <v>2360</v>
       </c>
       <c r="H57" s="4">
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K57" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="3">
-        <v>60349</v>
+        <v>67830</v>
       </c>
       <c r="C58" s="3">
-        <v>884</v>
+        <v>10727</v>
       </c>
       <c r="D58" s="5">
-        <v>-169</v>
+        <v>-4143</v>
       </c>
       <c r="E58" s="3">
-        <v>1.45</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F58" s="6">
-        <v>20650</v>
+        <v>46400</v>
       </c>
       <c r="G58" s="3">
-        <v>1024.25</v>
+        <v>2495</v>
       </c>
       <c r="H58" s="4">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K58" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B59" s="3">
-        <v>105379</v>
+        <v>437783</v>
       </c>
       <c r="C59" s="3">
-        <v>14279</v>
-      </c>
-      <c r="D59" s="4">
-        <v>8650</v>
+        <v>147059</v>
+      </c>
+      <c r="D59" s="5">
+        <v>-13771</v>
       </c>
       <c r="E59" s="3">
-        <v>1.55</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F59" s="6">
-        <v>20700</v>
+        <v>46500</v>
       </c>
       <c r="G59" s="3">
-        <v>1075.95</v>
+        <v>2537.9499999999998</v>
       </c>
       <c r="H59" s="5">
-        <v>0</v>
+        <v>-34</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="K59" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" s="3">
-        <v>64696</v>
+        <v>53091</v>
       </c>
       <c r="C60" s="3">
-        <v>5094</v>
-      </c>
-      <c r="D60" s="4">
-        <v>1763</v>
+        <v>9138</v>
+      </c>
+      <c r="D60" s="5">
+        <v>-3009</v>
       </c>
       <c r="E60" s="3">
-        <v>1.5</v>
+        <v>4.25</v>
       </c>
       <c r="F60" s="6">
-        <v>20750</v>
+        <v>46600</v>
       </c>
       <c r="G60" s="3">
-        <v>1168.2</v>
-      </c>
-      <c r="H60" s="5">
-        <v>0</v>
+        <v>2645.4</v>
+      </c>
+      <c r="H60" s="4">
+        <v>1</v>
       </c>
       <c r="I60" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K60" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61" s="3">
-        <v>123068</v>
+        <v>35933</v>
       </c>
       <c r="C61" s="3">
-        <v>25997</v>
+        <v>11829</v>
       </c>
       <c r="D61" s="4">
-        <v>18172</v>
+        <v>302</v>
       </c>
       <c r="E61" s="3">
-        <v>1.45</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="F61" s="6">
-        <v>20800</v>
+        <v>46700</v>
       </c>
       <c r="G61" s="3">
-        <v>1232.25</v>
+        <v>2757.8</v>
       </c>
       <c r="H61" s="5">
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K61" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B62" s="3">
-        <v>53066</v>
+        <v>33241</v>
       </c>
       <c r="C62" s="3">
-        <v>4143</v>
+        <v>9539</v>
       </c>
       <c r="D62" s="4">
-        <v>969</v>
+        <v>4555</v>
       </c>
       <c r="E62" s="3">
-        <v>1.45</v>
+        <v>4.25</v>
       </c>
       <c r="F62" s="6">
-        <v>20850</v>
+        <v>46800</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>2873</v>
       </c>
       <c r="H62" s="5">
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K62" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B63" s="3">
-        <v>77121</v>
+        <v>24695</v>
       </c>
       <c r="C63" s="3">
-        <v>17614</v>
+        <v>4498</v>
       </c>
       <c r="D63" s="4">
-        <v>12518</v>
+        <v>1272</v>
       </c>
       <c r="E63" s="3">
-        <v>1.35</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F63" s="6">
-        <v>20900</v>
+        <v>46900</v>
       </c>
       <c r="G63" s="3">
-        <v>0</v>
+        <v>2991.05</v>
       </c>
       <c r="H63" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J63" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K63" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B64" s="3">
-        <v>19987</v>
+        <v>311193</v>
       </c>
       <c r="C64" s="3">
-        <v>1097</v>
+        <v>106268</v>
       </c>
       <c r="D64" s="4">
-        <v>655</v>
+        <v>11724</v>
       </c>
       <c r="E64" s="3">
-        <v>1.1499999999999999</v>
+        <v>4</v>
       </c>
       <c r="F64" s="6">
-        <v>20950</v>
+        <v>47000</v>
       </c>
       <c r="G64" s="3">
-        <v>0</v>
-      </c>
-      <c r="H64" s="3">
-        <v>0</v>
+        <v>3040</v>
+      </c>
+      <c r="H64" s="4">
+        <v>13</v>
       </c>
       <c r="I64" s="3">
-        <v>0</v>
+        <v>722</v>
       </c>
       <c r="J64" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K64" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B65" s="3">
-        <v>253595</v>
+        <v>15210</v>
       </c>
       <c r="C65" s="3">
-        <v>54124</v>
+        <v>3372</v>
       </c>
       <c r="D65" s="4">
-        <v>19789</v>
+        <v>674</v>
       </c>
       <c r="E65" s="3">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="F65" s="6">
-        <v>21000</v>
+        <v>47100</v>
       </c>
       <c r="G65" s="3">
-        <v>1511.45</v>
+        <v>0</v>
       </c>
       <c r="H65" s="4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I65" s="3">
-        <v>230</v>
+        <v>3</v>
       </c>
       <c r="J65" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K65" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B66" s="3">
-        <v>10190</v>
+        <v>15152</v>
       </c>
       <c r="C66" s="3">
-        <v>552</v>
+        <v>3155</v>
       </c>
       <c r="D66" s="4">
-        <v>214</v>
+        <v>599</v>
       </c>
       <c r="E66" s="3">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="F66" s="6">
-        <v>21050</v>
+        <v>47200</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
@@ -2557,30 +2557,30 @@
         <v>0</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
       </c>
       <c r="K66" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B67" s="3">
-        <v>20588</v>
+        <v>6785</v>
       </c>
       <c r="C67" s="3">
-        <v>6160</v>
-      </c>
-      <c r="D67" s="4">
-        <v>2439</v>
+        <v>2224</v>
+      </c>
+      <c r="D67" s="5">
+        <v>-1</v>
       </c>
       <c r="E67" s="3">
-        <v>1.1000000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="F67" s="6">
-        <v>21100</v>
+        <v>47300</v>
       </c>
       <c r="G67" s="3">
         <v>0</v>
@@ -2589,30 +2589,30 @@
         <v>0</v>
       </c>
       <c r="I67" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J67" s="3">
         <v>0</v>
       </c>
       <c r="K67" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B68" s="3">
-        <v>10762</v>
+        <v>4635</v>
       </c>
       <c r="C68" s="3">
-        <v>1641</v>
+        <v>2431</v>
       </c>
       <c r="D68" s="4">
-        <v>1251</v>
+        <v>126</v>
       </c>
       <c r="E68" s="3">
-        <v>1.05</v>
+        <v>3.7</v>
       </c>
       <c r="F68" s="6">
-        <v>21150</v>
+        <v>47400</v>
       </c>
       <c r="G68" s="3">
         <v>0</v>
@@ -2627,56 +2627,56 @@
         <v>0</v>
       </c>
       <c r="K68" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B69" s="3">
-        <v>28160</v>
+        <v>95055</v>
       </c>
       <c r="C69" s="3">
-        <v>6018</v>
+        <v>27282</v>
       </c>
       <c r="D69" s="4">
-        <v>1456</v>
+        <v>2677</v>
       </c>
       <c r="E69" s="3">
-        <v>1.1000000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="F69" s="6">
-        <v>21200</v>
+        <v>47500</v>
       </c>
       <c r="G69" s="3">
-        <v>0</v>
-      </c>
-      <c r="H69" s="3">
-        <v>0</v>
+        <v>3511</v>
+      </c>
+      <c r="H69" s="5">
+        <v>-12</v>
       </c>
       <c r="I69" s="3">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="J69" s="3">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K69" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B70" s="3">
-        <v>8203</v>
+        <v>3689</v>
       </c>
       <c r="C70" s="3">
-        <v>1154</v>
+        <v>1267</v>
       </c>
       <c r="D70" s="4">
-        <v>1020</v>
+        <v>347</v>
       </c>
       <c r="E70" s="3">
-        <v>0.95</v>
+        <v>3.7</v>
       </c>
       <c r="F70" s="6">
-        <v>21250</v>
+        <v>47600</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2691,24 +2691,24 @@
         <v>0</v>
       </c>
       <c r="K70" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B71" s="3">
-        <v>34600</v>
+        <v>3052</v>
       </c>
       <c r="C71" s="3">
-        <v>9122</v>
+        <v>1110</v>
       </c>
       <c r="D71" s="4">
-        <v>5391</v>
+        <v>33</v>
       </c>
       <c r="E71" s="3">
-        <v>1.1499999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="F71" s="6">
-        <v>21300</v>
+        <v>47700</v>
       </c>
       <c r="G71" s="3">
         <v>0</v>
@@ -2723,56 +2723,56 @@
         <v>0</v>
       </c>
       <c r="K71" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B72" s="3">
-        <v>19496</v>
+        <v>2699</v>
       </c>
       <c r="C72" s="3">
-        <v>5506</v>
+        <v>1283</v>
       </c>
       <c r="D72" s="4">
-        <v>5458</v>
+        <v>164</v>
       </c>
       <c r="E72" s="3">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="F72" s="6">
-        <v>21350</v>
+        <v>47800</v>
       </c>
       <c r="G72" s="3">
-        <v>1822.45</v>
+        <v>0</v>
       </c>
       <c r="H72" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K72" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B73" s="3">
-        <v>34019</v>
+        <v>2800</v>
       </c>
       <c r="C73" s="3">
-        <v>8518</v>
+        <v>1101</v>
       </c>
       <c r="D73" s="4">
-        <v>4093</v>
+        <v>164</v>
       </c>
       <c r="E73" s="3">
-        <v>0.8</v>
+        <v>3.65</v>
       </c>
       <c r="F73" s="6">
-        <v>21400</v>
+        <v>47900</v>
       </c>
       <c r="G73" s="3">
         <v>0</v>
@@ -2787,228 +2787,488 @@
         <v>0</v>
       </c>
       <c r="K73" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B74" s="3">
-        <v>32108</v>
+        <v>172337</v>
       </c>
       <c r="C74" s="3">
-        <v>8392</v>
+        <v>87107</v>
       </c>
       <c r="D74" s="4">
-        <v>4124</v>
+        <v>3364</v>
       </c>
       <c r="E74" s="3">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="F74" s="6">
-        <v>21450</v>
+        <v>48000</v>
       </c>
       <c r="G74" s="3">
-        <v>0</v>
-      </c>
-      <c r="H74" s="3">
-        <v>0</v>
+        <v>4124.25</v>
+      </c>
+      <c r="H74" s="4">
+        <v>2</v>
       </c>
       <c r="I74" s="3">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="J74" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K74" s="6">
-        <v>19428.3</v>
+        <v>43952.6</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B75" s="3">
-        <v>198529</v>
+        <v>3652</v>
       </c>
       <c r="C75" s="3">
-        <v>42295</v>
+        <v>1239</v>
       </c>
       <c r="D75" s="4">
-        <v>17683</v>
+        <v>243</v>
       </c>
       <c r="E75" s="3">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="F75" s="6">
-        <v>21500</v>
+        <v>48100</v>
       </c>
       <c r="G75" s="3">
-        <v>1977.05</v>
+        <v>0</v>
       </c>
       <c r="H75" s="4">
+        <v>0</v>
+      </c>
+      <c r="I75" s="3">
+        <v>0</v>
+      </c>
+      <c r="J75" s="3">
+        <v>0</v>
+      </c>
+      <c r="K75" s="6">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B76" s="3">
+        <v>11233</v>
+      </c>
+      <c r="C76" s="3">
+        <v>14995</v>
+      </c>
+      <c r="D76" s="4">
+        <v>108</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="F76" s="6">
+        <v>48200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>4259.1499999999996</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>3</v>
+      </c>
+      <c r="K76" s="6">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B77" s="3">
+        <v>11526</v>
+      </c>
+      <c r="C77" s="3">
+        <v>9574</v>
+      </c>
+      <c r="D77" s="4">
+        <v>105</v>
+      </c>
+      <c r="E77" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="F77" s="6">
+        <v>48300</v>
+      </c>
+      <c r="G77" s="3">
+        <v>0</v>
+      </c>
+      <c r="H77" s="4">
+        <v>0</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0</v>
+      </c>
+      <c r="J77" s="3">
+        <v>0</v>
+      </c>
+      <c r="K77" s="6">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B78" s="3">
+        <v>5110</v>
+      </c>
+      <c r="C78" s="3">
+        <v>5062</v>
+      </c>
+      <c r="D78" s="4">
+        <v>104</v>
+      </c>
+      <c r="E78" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="F78" s="6">
+        <v>48400</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0</v>
+      </c>
+      <c r="I78" s="3">
+        <v>0</v>
+      </c>
+      <c r="J78" s="3">
+        <v>0</v>
+      </c>
+      <c r="K78" s="6">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B79" s="3">
+        <v>52812</v>
+      </c>
+      <c r="C79" s="3">
+        <v>21181</v>
+      </c>
+      <c r="D79" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E79" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="F79" s="6">
+        <v>48500</v>
+      </c>
+      <c r="G79" s="3">
+        <v>4570</v>
+      </c>
+      <c r="H79" s="5">
+        <v>-2</v>
+      </c>
+      <c r="I79" s="3">
+        <v>16</v>
+      </c>
+      <c r="J79" s="3">
+        <v>5</v>
+      </c>
+      <c r="K79" s="6">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B80" s="3">
+        <v>3809</v>
+      </c>
+      <c r="C80" s="3">
+        <v>2539</v>
+      </c>
+      <c r="D80" s="4">
+        <v>510</v>
+      </c>
+      <c r="E80" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="F80" s="6">
+        <v>48600</v>
+      </c>
+      <c r="G80" s="3">
+        <v>4644.05</v>
+      </c>
+      <c r="H80" s="4">
+        <v>0</v>
+      </c>
+      <c r="I80" s="3">
+        <v>0</v>
+      </c>
+      <c r="J80" s="3">
+        <v>3</v>
+      </c>
+      <c r="K80" s="6">
+        <v>43952.6</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B81" s="3">
+        <v>6563</v>
+      </c>
+      <c r="C81" s="3">
+        <v>4574</v>
+      </c>
+      <c r="D81" s="4">
+        <v>159</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="F81" s="6">
+        <v>48700</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>1</v>
       </c>
-      <c r="I75" s="3">
-        <v>5</v>
-      </c>
-      <c r="J75" s="3">
-        <v>1</v>
-      </c>
-      <c r="K75" s="6">
-        <v>19428.3</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="6"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="6"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="6"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="6"/>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="6"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="6"/>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="6">
+        <v>43952.6</v>
+      </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="6"/>
+      <c r="B82" s="3">
+        <v>49582</v>
+      </c>
+      <c r="C82" s="3">
+        <v>26681</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1986</v>
+      </c>
+      <c r="E82" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="F82" s="6">
+        <v>49000</v>
+      </c>
+      <c r="G82" s="3">
+        <v>5061.25</v>
+      </c>
+      <c r="H82" s="4">
+        <v>3</v>
+      </c>
+      <c r="I82" s="3">
+        <v>3</v>
+      </c>
+      <c r="J82" s="3">
+        <v>8</v>
+      </c>
+      <c r="K82" s="6">
+        <v>43952.6</v>
+      </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="6"/>
+      <c r="B83" s="3">
+        <v>21208</v>
+      </c>
+      <c r="C83" s="3">
+        <v>5167</v>
+      </c>
+      <c r="D83" s="5">
+        <v>-349</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="F83" s="6">
+        <v>49500</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="6">
+        <v>43952.6</v>
+      </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="6"/>
+      <c r="B84" s="3">
+        <v>39507</v>
+      </c>
+      <c r="C84" s="3">
+        <v>23545</v>
+      </c>
+      <c r="D84" s="5">
+        <v>-1260</v>
+      </c>
+      <c r="E84" s="3">
+        <v>2.65</v>
+      </c>
+      <c r="F84" s="6">
+        <v>50000</v>
+      </c>
+      <c r="G84" s="3">
+        <v>0</v>
+      </c>
+      <c r="H84" s="3">
+        <v>0</v>
+      </c>
+      <c r="I84" s="3">
+        <v>2</v>
+      </c>
+      <c r="J84" s="3">
+        <v>0</v>
+      </c>
+      <c r="K84" s="6">
+        <v>43952.6</v>
+      </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
+      <c r="B85" s="3">
+        <v>11994</v>
+      </c>
+      <c r="C85" s="3">
+        <v>6181</v>
+      </c>
+      <c r="D85" s="5">
+        <v>-604</v>
+      </c>
+      <c r="E85" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="F85" s="3">
+        <v>50500</v>
+      </c>
+      <c r="G85" s="3">
+        <v>0</v>
+      </c>
+      <c r="H85" s="3">
+        <v>0</v>
+      </c>
+      <c r="I85" s="3">
+        <v>0</v>
+      </c>
+      <c r="J85" s="3">
+        <v>0</v>
+      </c>
+      <c r="K85" s="3">
+        <v>43952.6</v>
+      </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
+      <c r="B86" s="3">
+        <v>17755</v>
+      </c>
+      <c r="C86" s="3">
+        <v>16920</v>
+      </c>
+      <c r="D86" s="5">
+        <v>-1804</v>
+      </c>
+      <c r="E86" s="3">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F86" s="3">
+        <v>51000</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0</v>
+      </c>
+      <c r="H86" s="3">
+        <v>0</v>
+      </c>
+      <c r="I86" s="3">
+        <v>4</v>
+      </c>
+      <c r="J86" s="3">
+        <v>0</v>
+      </c>
+      <c r="K86" s="3">
+        <v>43952.6</v>
+      </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
+      <c r="B87" s="3">
+        <v>19306</v>
+      </c>
+      <c r="C87" s="3">
+        <v>14358</v>
+      </c>
+      <c r="D87" s="5">
+        <v>-2939</v>
+      </c>
+      <c r="E87" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F87" s="3">
+        <v>51500</v>
+      </c>
+      <c r="G87" s="3">
+        <v>0</v>
+      </c>
+      <c r="H87" s="3">
+        <v>0</v>
+      </c>
+      <c r="I87" s="3">
+        <v>0</v>
+      </c>
+      <c r="J87" s="3">
+        <v>0</v>
+      </c>
+      <c r="K87" s="3">
+        <v>43952.6</v>
+      </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
+      <c r="B88" s="3">
+        <v>100550</v>
+      </c>
+      <c r="C88" s="3">
+        <v>88970</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1949</v>
+      </c>
+      <c r="E88" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="F88" s="3">
+        <v>52000</v>
+      </c>
+      <c r="G88" s="3">
+        <v>0</v>
+      </c>
+      <c r="H88" s="3">
+        <v>0</v>
+      </c>
+      <c r="I88" s="3">
+        <v>0</v>
+      </c>
+      <c r="J88" s="3">
+        <v>0</v>
+      </c>
+      <c r="K88" s="3">
+        <v>43952.6</v>
+      </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B89" s="3"/>

--- a/option_chain_data.xlsx
+++ b/option_chain_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ofmyr\Desktop\Trading Projects\Option-Chain-to-Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ofmyr\Desktop\Public Projects\Option-Chain-to-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5E6513-5B69-4C4F-A1BB-015F094ED160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5F7673-2B48-45F6-AABC-2F43070601DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3276" windowWidth="22476" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4584" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K97"/>
+  <dimension ref="B1:K114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B34" sqref="B34:K34"/>
@@ -460,13 +460,13 @@
   <cols>
     <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="1"/>
@@ -520,7 +520,7 @@
     </row>
     <row r="3" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -529,25 +529,25 @@
         <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>5938.75</v>
+        <v>0</v>
       </c>
       <c r="F3" s="6">
-        <v>38000</v>
+        <v>16500</v>
       </c>
       <c r="G3" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="H3" s="5">
-        <v>-4383</v>
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2002</v>
       </c>
       <c r="I3" s="3">
-        <v>12174</v>
+        <v>4142</v>
       </c>
       <c r="J3" s="3">
-        <v>142900</v>
+        <v>5266</v>
       </c>
       <c r="K3" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="4" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
@@ -555,31 +555,31 @@
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
         <v>0</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
       </c>
       <c r="F4" s="6">
-        <v>38500</v>
+        <v>17000</v>
       </c>
       <c r="G4" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="H4" s="5">
-        <v>-3592</v>
+        <v>0.15</v>
+      </c>
+      <c r="H4" s="4">
+        <v>95</v>
       </c>
       <c r="I4" s="3">
-        <v>37909</v>
+        <v>1043</v>
       </c>
       <c r="J4" s="3">
-        <v>275532</v>
+        <v>381</v>
       </c>
       <c r="K4" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="5" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
@@ -596,86 +596,86 @@
         <v>0</v>
       </c>
       <c r="F5" s="6">
-        <v>39000</v>
+        <v>17400</v>
       </c>
       <c r="G5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="H5" s="5">
-        <v>-2658</v>
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>137</v>
       </c>
       <c r="I5" s="3">
-        <v>9532</v>
+        <v>314</v>
       </c>
       <c r="J5" s="3">
-        <v>89565</v>
+        <v>391</v>
       </c>
       <c r="K5" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="6" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>4486.1000000000004</v>
+        <v>0</v>
       </c>
       <c r="F6" s="6">
-        <v>39500</v>
+        <v>17500</v>
       </c>
       <c r="G6" s="3">
-        <v>1.25</v>
+        <v>0.15</v>
       </c>
       <c r="H6" s="4">
-        <v>795</v>
+        <v>22</v>
       </c>
       <c r="I6" s="3">
-        <v>24908</v>
+        <v>304</v>
       </c>
       <c r="J6" s="3">
-        <v>133184</v>
+        <v>308</v>
       </c>
       <c r="K6" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="7" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D7" s="5">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>3860.4</v>
+        <v>0</v>
       </c>
       <c r="F7" s="6">
-        <v>40000</v>
+        <v>17600</v>
       </c>
       <c r="G7" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="H7" s="5">
-        <v>-4478</v>
+        <v>0.25</v>
+      </c>
+      <c r="H7" s="4">
+        <v>82</v>
       </c>
       <c r="I7" s="3">
-        <v>32548</v>
+        <v>489</v>
       </c>
       <c r="J7" s="3">
-        <v>261507</v>
+        <v>531</v>
       </c>
       <c r="K7" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="8" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
@@ -683,95 +683,95 @@
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
         <v>0</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="6">
-        <v>40500</v>
+        <v>17700</v>
       </c>
       <c r="G8" s="3">
-        <v>2</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1026</v>
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="5">
+        <v>-6</v>
       </c>
       <c r="I8" s="3">
-        <v>21197</v>
+        <v>56</v>
       </c>
       <c r="J8" s="3">
-        <v>221553</v>
+        <v>75</v>
       </c>
       <c r="K8" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="9" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D9" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>2920</v>
+        <v>0</v>
       </c>
       <c r="F9" s="6">
-        <v>41000</v>
+        <v>17800</v>
       </c>
       <c r="G9" s="3">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="H9" s="4">
-        <v>1665</v>
+        <v>236</v>
       </c>
       <c r="I9" s="3">
-        <v>47027</v>
+        <v>593</v>
       </c>
       <c r="J9" s="3">
-        <v>465019</v>
+        <v>1462</v>
       </c>
       <c r="K9" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="10" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D10" s="5">
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>2359.35</v>
+        <v>0</v>
       </c>
       <c r="F10" s="6">
-        <v>41500</v>
+        <v>17900</v>
       </c>
       <c r="G10" s="3">
-        <v>3.4</v>
+        <v>0.25</v>
       </c>
       <c r="H10" s="4">
-        <v>21620</v>
+        <v>2</v>
       </c>
       <c r="I10" s="3">
-        <v>79148</v>
+        <v>80</v>
       </c>
       <c r="J10" s="3">
-        <v>725922</v>
+        <v>337</v>
       </c>
       <c r="K10" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
@@ -779,31 +779,31 @@
         <v>0</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
         <v>0</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
       </c>
       <c r="F11" s="6">
-        <v>41600</v>
+        <v>18000</v>
       </c>
       <c r="G11" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="H11" s="4">
-        <v>3876</v>
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>-62</v>
       </c>
       <c r="I11" s="3">
-        <v>5743</v>
+        <v>1089</v>
       </c>
       <c r="J11" s="3">
-        <v>128149</v>
+        <v>284</v>
       </c>
       <c r="K11" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="F12" s="6">
-        <v>41700</v>
+        <v>18100</v>
       </c>
       <c r="G12" s="3">
-        <v>4.4000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="H12" s="4">
-        <v>2734</v>
+        <v>68</v>
       </c>
       <c r="I12" s="3">
-        <v>6471</v>
+        <v>131</v>
       </c>
       <c r="J12" s="3">
-        <v>145527</v>
+        <v>156</v>
       </c>
       <c r="K12" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
@@ -852,22 +852,22 @@
         <v>0</v>
       </c>
       <c r="F13" s="6">
-        <v>41800</v>
+        <v>18200</v>
       </c>
       <c r="G13" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H13" s="4">
-        <v>2672</v>
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="5">
+        <v>-183</v>
       </c>
       <c r="I13" s="3">
-        <v>11127</v>
+        <v>226</v>
       </c>
       <c r="J13" s="3">
-        <v>184077</v>
+        <v>579</v>
       </c>
       <c r="K13" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="14" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -884,54 +884,54 @@
         <v>0</v>
       </c>
       <c r="F14" s="6">
-        <v>41900</v>
+        <v>18300</v>
       </c>
       <c r="G14" s="3">
-        <v>5.2</v>
+        <v>0.3</v>
       </c>
       <c r="H14" s="4">
-        <v>1292</v>
+        <v>62</v>
       </c>
       <c r="I14" s="3">
-        <v>8984</v>
+        <v>239</v>
       </c>
       <c r="J14" s="3">
-        <v>201743</v>
+        <v>241</v>
       </c>
       <c r="K14" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
-        <v>1176</v>
+        <v>0</v>
       </c>
       <c r="C15" s="3">
-        <v>559</v>
+        <v>0</v>
       </c>
       <c r="D15" s="4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>1857.45</v>
+        <v>0</v>
       </c>
       <c r="F15" s="6">
-        <v>42000</v>
+        <v>18400</v>
       </c>
       <c r="G15" s="3">
-        <v>6.1</v>
+        <v>0.3</v>
       </c>
       <c r="H15" s="5">
-        <v>-31751</v>
+        <v>-5</v>
       </c>
       <c r="I15" s="3">
-        <v>134621</v>
+        <v>48</v>
       </c>
       <c r="J15" s="3">
-        <v>1262869</v>
+        <v>49</v>
       </c>
       <c r="K15" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="16" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
@@ -948,22 +948,22 @@
         <v>0</v>
       </c>
       <c r="F16" s="6">
-        <v>42100</v>
+        <v>18500</v>
       </c>
       <c r="G16" s="3">
-        <v>7.6</v>
-      </c>
-      <c r="H16" s="4">
-        <v>3979</v>
+        <v>0.25</v>
+      </c>
+      <c r="H16" s="5">
+        <v>-23</v>
       </c>
       <c r="I16" s="3">
-        <v>17900</v>
+        <v>767</v>
       </c>
       <c r="J16" s="3">
-        <v>321617</v>
+        <v>1413</v>
       </c>
       <c r="K16" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -980,1964 +980,1964 @@
         <v>0</v>
       </c>
       <c r="F17" s="6">
-        <v>42200</v>
+        <v>18600</v>
       </c>
       <c r="G17" s="3">
-        <v>8</v>
+        <v>0.35</v>
       </c>
       <c r="H17" s="4">
-        <v>1574</v>
+        <v>28</v>
       </c>
       <c r="I17" s="3">
-        <v>20202</v>
+        <v>115</v>
       </c>
       <c r="J17" s="3">
-        <v>349900</v>
+        <v>175</v>
       </c>
       <c r="K17" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>5</v>
-      </c>
-      <c r="D18" s="4">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>1667.8</v>
+        <v>0</v>
       </c>
       <c r="F18" s="6">
-        <v>42300</v>
+        <v>18650</v>
       </c>
       <c r="G18" s="3">
-        <v>10.050000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="H18" s="4">
-        <v>12372</v>
+        <v>208</v>
       </c>
       <c r="I18" s="3">
-        <v>22938</v>
+        <v>275</v>
       </c>
       <c r="J18" s="3">
-        <v>360001</v>
+        <v>838</v>
       </c>
       <c r="K18" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="C19" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D19" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E19" s="3">
-        <v>1481</v>
+        <v>0</v>
       </c>
       <c r="F19" s="6">
-        <v>42400</v>
+        <v>18700</v>
       </c>
       <c r="G19" s="3">
-        <v>12</v>
-      </c>
-      <c r="H19" s="4">
-        <v>8854</v>
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="5">
+        <v>-15</v>
       </c>
       <c r="I19" s="3">
-        <v>31994</v>
+        <v>374</v>
       </c>
       <c r="J19" s="3">
-        <v>435053</v>
+        <v>247</v>
       </c>
       <c r="K19" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
-        <v>767</v>
+        <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="D20" s="4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>1360</v>
+        <v>0</v>
       </c>
       <c r="F20" s="6">
-        <v>42500</v>
+        <v>18750</v>
       </c>
       <c r="G20" s="3">
-        <v>14</v>
+        <v>0.3</v>
       </c>
       <c r="H20" s="4">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="I20" s="3">
-        <v>146261</v>
+        <v>174</v>
       </c>
       <c r="J20" s="3">
-        <v>1285233</v>
+        <v>486</v>
       </c>
       <c r="K20" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C21" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D21" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>1301.05</v>
+        <v>0</v>
       </c>
       <c r="F21" s="6">
-        <v>42600</v>
+        <v>18800</v>
       </c>
       <c r="G21" s="3">
-        <v>15.5</v>
+        <v>0.2</v>
       </c>
       <c r="H21" s="4">
-        <v>3193</v>
+        <v>69</v>
       </c>
       <c r="I21" s="3">
-        <v>23318</v>
+        <v>649</v>
       </c>
       <c r="J21" s="3">
-        <v>473641</v>
+        <v>556</v>
       </c>
       <c r="K21" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="C22" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D22" s="4">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>1185.55</v>
+        <v>0</v>
       </c>
       <c r="F22" s="6">
-        <v>42700</v>
+        <v>18850</v>
       </c>
       <c r="G22" s="3">
-        <v>19.600000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="H22" s="4">
-        <v>5845</v>
+        <v>64</v>
       </c>
       <c r="I22" s="3">
-        <v>29754</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>537866</v>
+        <v>382</v>
       </c>
       <c r="K22" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="C23" s="3">
-        <v>157</v>
-      </c>
-      <c r="D23" s="4">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>1065.6500000000001</v>
+        <v>0</v>
       </c>
       <c r="F23" s="6">
-        <v>42800</v>
+        <v>18900</v>
       </c>
       <c r="G23" s="3">
-        <v>23.4</v>
-      </c>
-      <c r="H23" s="4">
-        <v>4067</v>
+        <v>0.25</v>
+      </c>
+      <c r="H23" s="5">
+        <v>-150</v>
       </c>
       <c r="I23" s="3">
-        <v>38969</v>
+        <v>402</v>
       </c>
       <c r="J23" s="3">
-        <v>651408</v>
+        <v>459</v>
       </c>
       <c r="K23" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="C24" s="3">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="D24" s="4">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>977.25</v>
+        <v>0</v>
       </c>
       <c r="F24" s="6">
-        <v>42900</v>
+        <v>18950</v>
       </c>
       <c r="G24" s="3">
-        <v>28.15</v>
-      </c>
-      <c r="H24" s="4">
-        <v>4505</v>
+        <v>0.25</v>
+      </c>
+      <c r="H24" s="5">
+        <v>-2</v>
       </c>
       <c r="I24" s="3">
-        <v>33713</v>
+        <v>281</v>
       </c>
       <c r="J24" s="3">
-        <v>577190</v>
+        <v>218</v>
       </c>
       <c r="K24" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
-        <v>25946</v>
+        <v>0</v>
       </c>
       <c r="C25" s="3">
-        <v>4249</v>
+        <v>0</v>
       </c>
       <c r="D25" s="4">
-        <v>1783</v>
+        <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>889.3</v>
+        <v>0</v>
       </c>
       <c r="F25" s="6">
-        <v>43000</v>
+        <v>19000</v>
       </c>
       <c r="G25" s="3">
-        <v>34</v>
+        <v>0.3</v>
       </c>
       <c r="H25" s="4">
-        <v>14565</v>
+        <v>671</v>
       </c>
       <c r="I25" s="3">
-        <v>140476</v>
+        <v>4297</v>
       </c>
       <c r="J25" s="3">
-        <v>1920178</v>
+        <v>8500</v>
       </c>
       <c r="K25" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
-        <v>2463</v>
+        <v>0</v>
       </c>
       <c r="C26" s="3">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="D26" s="4">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>793</v>
+        <v>0</v>
       </c>
       <c r="F26" s="6">
-        <v>43100</v>
+        <v>19050</v>
       </c>
       <c r="G26" s="3">
-        <v>44.85</v>
-      </c>
-      <c r="H26" s="4">
-        <v>14010</v>
+        <v>0.25</v>
+      </c>
+      <c r="H26" s="5">
+        <v>-70</v>
       </c>
       <c r="I26" s="3">
-        <v>51133</v>
+        <v>917</v>
       </c>
       <c r="J26" s="3">
-        <v>844273</v>
+        <v>1189</v>
       </c>
       <c r="K26" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
-        <v>7727</v>
+        <v>0</v>
       </c>
       <c r="C27" s="3">
-        <v>622</v>
+        <v>1</v>
       </c>
       <c r="D27" s="4">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>703.55</v>
+        <v>0</v>
       </c>
       <c r="F27" s="6">
-        <v>43200</v>
+        <v>19100</v>
       </c>
       <c r="G27" s="3">
-        <v>53.25</v>
-      </c>
-      <c r="H27" s="4">
-        <v>27557</v>
+        <v>0.25</v>
+      </c>
+      <c r="H27" s="5">
+        <v>-65</v>
       </c>
       <c r="I27" s="3">
-        <v>76936</v>
+        <v>1127</v>
       </c>
       <c r="J27" s="3">
-        <v>1046379</v>
+        <v>4312</v>
       </c>
       <c r="K27" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
-        <v>16335</v>
+        <v>0</v>
       </c>
       <c r="C28" s="3">
-        <v>1235</v>
-      </c>
-      <c r="D28" s="4">
-        <v>828</v>
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
       </c>
       <c r="E28" s="3">
-        <v>611.6</v>
+        <v>0</v>
       </c>
       <c r="F28" s="6">
-        <v>43300</v>
+        <v>19150</v>
       </c>
       <c r="G28" s="3">
-        <v>65.3</v>
+        <v>0.3</v>
       </c>
       <c r="H28" s="4">
-        <v>18606</v>
+        <v>7</v>
       </c>
       <c r="I28" s="3">
-        <v>60845</v>
+        <v>417</v>
       </c>
       <c r="J28" s="3">
-        <v>1217224</v>
+        <v>2297</v>
       </c>
       <c r="K28" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
-        <v>43714</v>
+        <v>0</v>
       </c>
       <c r="C29" s="3">
-        <v>3229</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4">
-        <v>2135</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>525.5</v>
+        <v>0</v>
       </c>
       <c r="F29" s="6">
-        <v>43400</v>
+        <v>19200</v>
       </c>
       <c r="G29" s="3">
-        <v>78.8</v>
+        <v>0.3</v>
       </c>
       <c r="H29" s="4">
-        <v>19334</v>
+        <v>185</v>
       </c>
       <c r="I29" s="3">
-        <v>62297</v>
+        <v>3511</v>
       </c>
       <c r="J29" s="3">
-        <v>1402486</v>
+        <v>7706</v>
       </c>
       <c r="K29" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
-        <v>398510</v>
+        <v>0</v>
       </c>
       <c r="C30" s="3">
-        <v>23800</v>
+        <v>0</v>
       </c>
       <c r="D30" s="4">
-        <v>18052</v>
+        <v>0</v>
       </c>
       <c r="E30" s="3">
-        <v>448.95</v>
+        <v>0</v>
       </c>
       <c r="F30" s="6">
-        <v>43500</v>
+        <v>19250</v>
       </c>
       <c r="G30" s="3">
-        <v>99.25</v>
-      </c>
-      <c r="H30" s="4">
-        <v>948</v>
+        <v>0.25</v>
+      </c>
+      <c r="H30" s="5">
+        <v>-52</v>
       </c>
       <c r="I30" s="3">
-        <v>122549</v>
+        <v>2070</v>
       </c>
       <c r="J30" s="3">
-        <v>3127568</v>
+        <v>6593</v>
       </c>
       <c r="K30" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
-        <v>452733</v>
+        <v>0</v>
       </c>
       <c r="C31" s="3">
-        <v>10786</v>
-      </c>
-      <c r="D31" s="4">
-        <v>9742</v>
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
       </c>
       <c r="E31" s="3">
-        <v>372.5</v>
+        <v>0</v>
       </c>
       <c r="F31" s="6">
-        <v>43600</v>
+        <v>19300</v>
       </c>
       <c r="G31" s="3">
-        <v>124</v>
-      </c>
-      <c r="H31" s="4">
-        <v>4020</v>
+        <v>0.3</v>
+      </c>
+      <c r="H31" s="5">
+        <v>-948</v>
       </c>
       <c r="I31" s="3">
-        <v>68508</v>
+        <v>6748</v>
       </c>
       <c r="J31" s="3">
-        <v>2309770</v>
+        <v>22124</v>
       </c>
       <c r="K31" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
-        <v>1083337</v>
+        <v>0</v>
       </c>
       <c r="C32" s="3">
-        <v>21049</v>
+        <v>0</v>
       </c>
       <c r="D32" s="4">
-        <v>17948</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>302.64999999999998</v>
+        <v>0</v>
       </c>
       <c r="F32" s="6">
-        <v>43700</v>
+        <v>19350</v>
       </c>
       <c r="G32" s="3">
-        <v>155.65</v>
+        <v>0.35</v>
       </c>
       <c r="H32" s="4">
-        <v>22660</v>
+        <v>346</v>
       </c>
       <c r="I32" s="3">
-        <v>88135</v>
+        <v>990</v>
       </c>
       <c r="J32" s="3">
-        <v>2985205</v>
+        <v>4110</v>
       </c>
       <c r="K32" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
-        <v>3223760</v>
+        <v>0</v>
       </c>
       <c r="C33" s="3">
-        <v>63362</v>
-      </c>
-      <c r="D33" s="4">
-        <v>55379</v>
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>240.6</v>
+        <v>0</v>
       </c>
       <c r="F33" s="6">
-        <v>43800</v>
+        <v>19400</v>
       </c>
       <c r="G33" s="3">
-        <v>192.1</v>
-      </c>
-      <c r="H33" s="4">
-        <v>45056</v>
+        <v>0.35</v>
+      </c>
+      <c r="H33" s="5">
+        <v>-330</v>
       </c>
       <c r="I33" s="3">
-        <v>133689</v>
+        <v>3913</v>
       </c>
       <c r="J33" s="3">
-        <v>5252485</v>
+        <v>18285</v>
       </c>
       <c r="K33" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
-        <v>4625622</v>
+        <v>0</v>
       </c>
       <c r="C34" s="3">
-        <v>103373</v>
+        <v>0</v>
       </c>
       <c r="D34" s="4">
-        <v>96167</v>
+        <v>0</v>
       </c>
       <c r="E34" s="3">
-        <v>184.2</v>
+        <v>0</v>
       </c>
       <c r="F34" s="6">
-        <v>43900</v>
+        <v>19450</v>
       </c>
       <c r="G34" s="3">
-        <v>236.75</v>
+        <v>0.4</v>
       </c>
       <c r="H34" s="4">
-        <v>49521</v>
+        <v>53</v>
       </c>
       <c r="I34" s="3">
-        <v>129268</v>
+        <v>1005</v>
       </c>
       <c r="J34" s="3">
-        <v>5506170</v>
+        <v>6619</v>
       </c>
       <c r="K34" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
-        <v>6931539</v>
+        <v>0</v>
       </c>
       <c r="C35" s="3">
-        <v>231711</v>
+        <v>21</v>
       </c>
       <c r="D35" s="4">
-        <v>177247</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="F35" s="6">
-        <v>44000</v>
+        <v>19500</v>
       </c>
       <c r="G35" s="3">
-        <v>290</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H35" s="4">
-        <v>9824</v>
+        <v>1741</v>
       </c>
       <c r="I35" s="3">
-        <v>154411</v>
+        <v>28072</v>
       </c>
       <c r="J35" s="3">
-        <v>6955040</v>
+        <v>68285</v>
       </c>
       <c r="K35" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
-        <v>3234149</v>
+        <v>0</v>
       </c>
       <c r="C36" s="3">
-        <v>95020</v>
+        <v>0</v>
       </c>
       <c r="D36" s="4">
-        <v>77500</v>
+        <v>0</v>
       </c>
       <c r="E36" s="3">
-        <v>101.4</v>
+        <v>0</v>
       </c>
       <c r="F36" s="6">
-        <v>44100</v>
+        <v>19550</v>
       </c>
       <c r="G36" s="3">
-        <v>353.8</v>
-      </c>
-      <c r="H36" s="5">
-        <v>-30365</v>
+        <v>0.5</v>
+      </c>
+      <c r="H36" s="4">
+        <v>646</v>
       </c>
       <c r="I36" s="3">
-        <v>39075</v>
+        <v>2235</v>
       </c>
       <c r="J36" s="3">
-        <v>2582548</v>
+        <v>10745</v>
       </c>
       <c r="K36" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
-        <v>3348720</v>
+        <v>0</v>
       </c>
       <c r="C37" s="3">
-        <v>128009</v>
-      </c>
-      <c r="D37" s="4">
-        <v>58723</v>
+        <v>0</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
       </c>
       <c r="E37" s="3">
-        <v>73.3</v>
+        <v>0</v>
       </c>
       <c r="F37" s="6">
-        <v>44200</v>
+        <v>19600</v>
       </c>
       <c r="G37" s="3">
-        <v>422.75</v>
-      </c>
-      <c r="H37" s="5">
-        <v>-80466</v>
+        <v>0.45</v>
+      </c>
+      <c r="H37" s="4">
+        <v>59</v>
       </c>
       <c r="I37" s="3">
-        <v>46629</v>
+        <v>12227</v>
       </c>
       <c r="J37" s="3">
-        <v>1851638</v>
+        <v>54312</v>
       </c>
       <c r="K37" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
-        <v>2809592</v>
+        <v>0</v>
       </c>
       <c r="C38" s="3">
-        <v>121323</v>
-      </c>
-      <c r="D38" s="4">
-        <v>28139</v>
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0</v>
       </c>
       <c r="E38" s="3">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F38" s="6">
-        <v>44300</v>
+        <v>19650</v>
       </c>
       <c r="G38" s="3">
-        <v>504.55</v>
-      </c>
-      <c r="H38" s="5">
-        <v>-120595</v>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1773</v>
       </c>
       <c r="I38" s="3">
-        <v>36500</v>
+        <v>4087</v>
       </c>
       <c r="J38" s="3">
-        <v>963864</v>
+        <v>17665</v>
       </c>
       <c r="K38" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="3">
-        <v>2383433</v>
+        <v>0</v>
       </c>
       <c r="C39" s="3">
-        <v>136369</v>
-      </c>
-      <c r="D39" s="4">
-        <v>22038</v>
+        <v>25</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
       </c>
       <c r="E39" s="3">
-        <v>36.549999999999997</v>
+        <v>0</v>
       </c>
       <c r="F39" s="6">
-        <v>44400</v>
+        <v>19700</v>
       </c>
       <c r="G39" s="3">
-        <v>588.15</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H39" s="5">
-        <v>-51446</v>
+        <v>-9770</v>
       </c>
       <c r="I39" s="3">
-        <v>22426</v>
+        <v>15795</v>
       </c>
       <c r="J39" s="3">
-        <v>501593</v>
+        <v>118415</v>
       </c>
       <c r="K39" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
-        <v>2770545</v>
+        <v>0</v>
       </c>
       <c r="C40" s="3">
-        <v>213484</v>
-      </c>
-      <c r="D40" s="4">
-        <v>19002</v>
+        <v>0</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0</v>
       </c>
       <c r="E40" s="3">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F40" s="6">
-        <v>44500</v>
+        <v>19750</v>
       </c>
       <c r="G40" s="3">
-        <v>677.95</v>
-      </c>
-      <c r="H40" s="5">
-        <v>-46834</v>
+        <v>0.65</v>
+      </c>
+      <c r="H40" s="4">
+        <v>292</v>
       </c>
       <c r="I40" s="3">
-        <v>42824</v>
+        <v>4199</v>
       </c>
       <c r="J40" s="3">
-        <v>392072</v>
+        <v>22731</v>
       </c>
       <c r="K40" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
-        <v>1519633</v>
+        <v>0</v>
       </c>
       <c r="C41" s="3">
-        <v>119084</v>
-      </c>
-      <c r="D41" s="4">
-        <v>47931</v>
+        <v>40</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>17.649999999999999</v>
+        <v>0</v>
       </c>
       <c r="F41" s="6">
-        <v>44600</v>
+        <v>19800</v>
       </c>
       <c r="G41" s="3">
-        <v>765.3</v>
-      </c>
-      <c r="H41" s="5">
-        <v>-16839</v>
+        <v>0.7</v>
+      </c>
+      <c r="H41" s="4">
+        <v>2939</v>
       </c>
       <c r="I41" s="3">
-        <v>8973</v>
+        <v>30250</v>
       </c>
       <c r="J41" s="3">
-        <v>103071</v>
+        <v>161475</v>
       </c>
       <c r="K41" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
-        <v>1646642</v>
+        <v>0</v>
       </c>
       <c r="C42" s="3">
-        <v>118256</v>
-      </c>
-      <c r="D42" s="4">
-        <v>27733</v>
+        <v>1</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>13.4</v>
+        <v>0</v>
       </c>
       <c r="F42" s="6">
-        <v>44700</v>
+        <v>19850</v>
       </c>
       <c r="G42" s="3">
-        <v>867.6</v>
-      </c>
-      <c r="H42" s="5">
-        <v>-5557</v>
+        <v>0.8</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1099</v>
       </c>
       <c r="I42" s="3">
-        <v>7518</v>
+        <v>8026</v>
       </c>
       <c r="J42" s="3">
-        <v>46922</v>
+        <v>55909</v>
       </c>
       <c r="K42" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
-        <v>1727675</v>
+        <v>0</v>
       </c>
       <c r="C43" s="3">
-        <v>119471</v>
+        <v>43</v>
       </c>
       <c r="D43" s="4">
-        <v>18372</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F43" s="6">
-        <v>44800</v>
+        <v>19900</v>
       </c>
       <c r="G43" s="3">
-        <v>960.25</v>
-      </c>
-      <c r="H43" s="5">
-        <v>-2816</v>
+        <v>0.8</v>
+      </c>
+      <c r="H43" s="4">
+        <v>23686</v>
       </c>
       <c r="I43" s="3">
-        <v>7330</v>
+        <v>48192</v>
       </c>
       <c r="J43" s="3">
-        <v>20196</v>
+        <v>309685</v>
       </c>
       <c r="K43" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
-        <v>1582326</v>
+        <v>0</v>
       </c>
       <c r="C44" s="3">
-        <v>60228</v>
+        <v>4</v>
       </c>
       <c r="D44" s="5">
-        <v>-22040</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>7.95</v>
+        <v>0</v>
       </c>
       <c r="F44" s="6">
-        <v>44900</v>
+        <v>19950</v>
       </c>
       <c r="G44" s="3">
-        <v>1058</v>
-      </c>
-      <c r="H44" s="5">
-        <v>-404</v>
+        <v>1.05</v>
+      </c>
+      <c r="H44" s="4">
+        <v>4337</v>
       </c>
       <c r="I44" s="3">
-        <v>3069</v>
+        <v>8742</v>
       </c>
       <c r="J44" s="3">
-        <v>5800</v>
+        <v>88028</v>
       </c>
       <c r="K44" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
-        <v>2696562</v>
+        <v>89</v>
       </c>
       <c r="C45" s="3">
-        <v>192630</v>
+        <v>152</v>
       </c>
       <c r="D45" s="4">
-        <v>25675</v>
+        <v>2</v>
       </c>
       <c r="E45" s="3">
-        <v>6.8</v>
+        <v>700</v>
       </c>
       <c r="F45" s="6">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="G45" s="3">
-        <v>1157.8499999999999</v>
-      </c>
-      <c r="H45" s="5">
-        <v>-2508</v>
+        <v>1.35</v>
+      </c>
+      <c r="H45" s="4">
+        <v>29951</v>
       </c>
       <c r="I45" s="3">
-        <v>11090</v>
+        <v>65546</v>
       </c>
       <c r="J45" s="3">
-        <v>25051</v>
+        <v>431602</v>
       </c>
       <c r="K45" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
-        <v>1470350</v>
+        <v>38</v>
       </c>
       <c r="C46" s="3">
-        <v>63548</v>
-      </c>
-      <c r="D46" s="5">
-        <v>-24719</v>
+        <v>31</v>
+      </c>
+      <c r="D46" s="4">
+        <v>23</v>
       </c>
       <c r="E46" s="3">
-        <v>6</v>
+        <v>665.8</v>
       </c>
       <c r="F46" s="6">
-        <v>45100</v>
+        <v>20050</v>
       </c>
       <c r="G46" s="3">
-        <v>1255.4000000000001</v>
-      </c>
-      <c r="H46" s="5">
-        <v>-205</v>
+        <v>1.65</v>
+      </c>
+      <c r="H46" s="4">
+        <v>12769</v>
       </c>
       <c r="I46" s="3">
-        <v>2107</v>
+        <v>20107</v>
       </c>
       <c r="J46" s="3">
-        <v>1115</v>
+        <v>153744</v>
       </c>
       <c r="K46" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
-        <v>1363812</v>
+        <v>44</v>
       </c>
       <c r="C47" s="3">
-        <v>74422</v>
-      </c>
-      <c r="D47" s="5">
-        <v>-8893</v>
+        <v>55</v>
+      </c>
+      <c r="D47" s="4">
+        <v>35</v>
       </c>
       <c r="E47" s="3">
-        <v>5.3</v>
+        <v>623.35</v>
       </c>
       <c r="F47" s="6">
-        <v>45200</v>
+        <v>20100</v>
       </c>
       <c r="G47" s="3">
-        <v>1354.95</v>
-      </c>
-      <c r="H47" s="5">
-        <v>-199</v>
+        <v>1.95</v>
+      </c>
+      <c r="H47" s="4">
+        <v>10952</v>
       </c>
       <c r="I47" s="3">
-        <v>1407</v>
+        <v>24761</v>
       </c>
       <c r="J47" s="3">
-        <v>1613</v>
+        <v>258925</v>
       </c>
       <c r="K47" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
-        <v>887432</v>
+        <v>0</v>
       </c>
       <c r="C48" s="3">
-        <v>46330</v>
-      </c>
-      <c r="D48" s="5">
-        <v>-21483</v>
+        <v>31</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F48" s="6">
-        <v>45300</v>
+        <v>20150</v>
       </c>
       <c r="G48" s="3">
-        <v>1455.35</v>
-      </c>
-      <c r="H48" s="5">
-        <v>-167</v>
+        <v>2.6</v>
+      </c>
+      <c r="H48" s="4">
+        <v>9222</v>
       </c>
       <c r="I48" s="3">
-        <v>1831</v>
+        <v>14255</v>
       </c>
       <c r="J48" s="3">
-        <v>656</v>
+        <v>208739</v>
       </c>
       <c r="K48" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
-        <v>668033</v>
+        <v>495</v>
       </c>
       <c r="C49" s="3">
-        <v>33240</v>
-      </c>
-      <c r="D49" s="5">
-        <v>-13539</v>
+        <v>291</v>
+      </c>
+      <c r="D49" s="4">
+        <v>88</v>
       </c>
       <c r="E49" s="3">
-        <v>4.5</v>
+        <v>501.95</v>
       </c>
       <c r="F49" s="6">
-        <v>45400</v>
+        <v>20200</v>
       </c>
       <c r="G49" s="3">
-        <v>1540</v>
-      </c>
-      <c r="H49" s="5">
-        <v>-16</v>
+        <v>3.1</v>
+      </c>
+      <c r="H49" s="4">
+        <v>8800</v>
       </c>
       <c r="I49" s="3">
-        <v>1613</v>
+        <v>30838</v>
       </c>
       <c r="J49" s="3">
-        <v>116</v>
+        <v>487946</v>
       </c>
       <c r="K49" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
-        <v>1293846</v>
+        <v>80</v>
       </c>
       <c r="C50" s="3">
-        <v>133043</v>
+        <v>191</v>
       </c>
       <c r="D50" s="4">
-        <v>23834</v>
+        <v>15</v>
       </c>
       <c r="E50" s="3">
-        <v>3.75</v>
+        <v>467.1</v>
       </c>
       <c r="F50" s="6">
-        <v>45500</v>
+        <v>20250</v>
       </c>
       <c r="G50" s="3">
-        <v>1652.4</v>
-      </c>
-      <c r="H50" s="5">
-        <v>-428</v>
+        <v>4.05</v>
+      </c>
+      <c r="H50" s="4">
+        <v>13787</v>
       </c>
       <c r="I50" s="3">
-        <v>5257</v>
+        <v>20223</v>
       </c>
       <c r="J50" s="3">
-        <v>1898</v>
+        <v>404907</v>
       </c>
       <c r="K50" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="3">
-        <v>549842</v>
+        <v>1938</v>
       </c>
       <c r="C51" s="3">
-        <v>20738</v>
-      </c>
-      <c r="D51" s="5">
-        <v>-37222</v>
+        <v>633</v>
+      </c>
+      <c r="D51" s="4">
+        <v>212</v>
       </c>
       <c r="E51" s="3">
-        <v>3.55</v>
+        <v>414.3</v>
       </c>
       <c r="F51" s="6">
-        <v>45600</v>
+        <v>20300</v>
       </c>
       <c r="G51" s="3">
-        <v>1758.55</v>
-      </c>
-      <c r="H51" s="5">
-        <v>-15</v>
+        <v>5.2</v>
+      </c>
+      <c r="H51" s="4">
+        <v>16507</v>
       </c>
       <c r="I51" s="3">
-        <v>1483</v>
+        <v>30437</v>
       </c>
       <c r="J51" s="3">
-        <v>198</v>
+        <v>712352</v>
       </c>
       <c r="K51" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="3">
-        <v>461507</v>
+        <v>770</v>
       </c>
       <c r="C52" s="3">
-        <v>29971</v>
-      </c>
-      <c r="D52" s="5">
-        <v>-15068</v>
+        <v>453</v>
+      </c>
+      <c r="D52" s="4">
+        <v>118</v>
       </c>
       <c r="E52" s="3">
-        <v>3.75</v>
+        <v>367.35</v>
       </c>
       <c r="F52" s="6">
-        <v>45700</v>
+        <v>20350</v>
       </c>
       <c r="G52" s="3">
-        <v>1824.55</v>
-      </c>
-      <c r="H52" s="5">
-        <v>-71</v>
+        <v>7.15</v>
+      </c>
+      <c r="H52" s="4">
+        <v>7799</v>
       </c>
       <c r="I52" s="3">
-        <v>840</v>
+        <v>16346</v>
       </c>
       <c r="J52" s="3">
-        <v>154</v>
+        <v>418159</v>
       </c>
       <c r="K52" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="3">
-        <v>383740</v>
+        <v>6610</v>
       </c>
       <c r="C53" s="3">
-        <v>33021</v>
-      </c>
-      <c r="D53" s="5">
-        <v>-10807</v>
+        <v>1585</v>
+      </c>
+      <c r="D53" s="4">
+        <v>353</v>
       </c>
       <c r="E53" s="3">
-        <v>3.3</v>
+        <v>324.10000000000002</v>
       </c>
       <c r="F53" s="6">
-        <v>45800</v>
+        <v>20400</v>
       </c>
       <c r="G53" s="3">
-        <v>1939.5</v>
-      </c>
-      <c r="H53" s="5">
-        <v>-9</v>
+        <v>10.050000000000001</v>
+      </c>
+      <c r="H53" s="4">
+        <v>19402</v>
       </c>
       <c r="I53" s="3">
-        <v>233</v>
+        <v>41015</v>
       </c>
       <c r="J53" s="3">
-        <v>39</v>
+        <v>752218</v>
       </c>
       <c r="K53" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="3">
-        <v>250011</v>
+        <v>11739</v>
       </c>
       <c r="C54" s="3">
-        <v>11843</v>
-      </c>
-      <c r="D54" s="5">
-        <v>-2250</v>
+        <v>1448</v>
+      </c>
+      <c r="D54" s="4">
+        <v>88</v>
       </c>
       <c r="E54" s="3">
-        <v>3.05</v>
+        <v>282.10000000000002</v>
       </c>
       <c r="F54" s="6">
-        <v>45900</v>
+        <v>20450</v>
       </c>
       <c r="G54" s="3">
-        <v>2039.45</v>
-      </c>
-      <c r="H54" s="5">
-        <v>-177</v>
+        <v>14.2</v>
+      </c>
+      <c r="H54" s="4">
+        <v>11570</v>
       </c>
       <c r="I54" s="3">
-        <v>162</v>
+        <v>23273</v>
       </c>
       <c r="J54" s="3">
-        <v>355</v>
+        <v>535656</v>
       </c>
       <c r="K54" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="3">
-        <v>1385540</v>
+        <v>75492</v>
       </c>
       <c r="C55" s="3">
-        <v>198294</v>
+        <v>7490</v>
       </c>
       <c r="D55" s="4">
-        <v>21238</v>
+        <v>2468</v>
       </c>
       <c r="E55" s="3">
-        <v>2.85</v>
+        <v>236.15</v>
       </c>
       <c r="F55" s="6">
-        <v>46000</v>
+        <v>20500</v>
       </c>
       <c r="G55" s="3">
-        <v>2146.9</v>
-      </c>
-      <c r="H55" s="5">
-        <v>-195</v>
+        <v>20.55</v>
+      </c>
+      <c r="H55" s="4">
+        <v>28169</v>
       </c>
       <c r="I55" s="3">
-        <v>2584</v>
+        <v>48318</v>
       </c>
       <c r="J55" s="3">
-        <v>2561</v>
+        <v>1080405</v>
       </c>
       <c r="K55" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="3">
-        <v>216224</v>
+        <v>100796</v>
       </c>
       <c r="C56" s="3">
-        <v>17712</v>
-      </c>
-      <c r="D56" s="5">
-        <v>-79</v>
+        <v>5720</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1441</v>
       </c>
       <c r="E56" s="3">
-        <v>2.7</v>
+        <v>194.95</v>
       </c>
       <c r="F56" s="6">
-        <v>46100</v>
+        <v>20550</v>
       </c>
       <c r="G56" s="3">
-        <v>2235</v>
-      </c>
-      <c r="H56" s="5">
-        <v>-84</v>
+        <v>29.3</v>
+      </c>
+      <c r="H56" s="4">
+        <v>17579</v>
       </c>
       <c r="I56" s="3">
-        <v>133</v>
+        <v>27383</v>
       </c>
       <c r="J56" s="3">
-        <v>137</v>
+        <v>612837</v>
       </c>
       <c r="K56" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" s="3">
-        <v>174158</v>
+        <v>512476</v>
       </c>
       <c r="C57" s="3">
-        <v>14813</v>
-      </c>
-      <c r="D57" s="5">
-        <v>-2123</v>
+        <v>14019</v>
+      </c>
+      <c r="D57" s="4">
+        <v>10012</v>
       </c>
       <c r="E57" s="3">
-        <v>2.7</v>
+        <v>157.85</v>
       </c>
       <c r="F57" s="6">
-        <v>46200</v>
+        <v>20600</v>
       </c>
       <c r="G57" s="3">
-        <v>2330</v>
-      </c>
-      <c r="H57" s="5">
-        <v>-8</v>
+        <v>41.75</v>
+      </c>
+      <c r="H57" s="4">
+        <v>34266</v>
       </c>
       <c r="I57" s="3">
-        <v>72</v>
+        <v>46416</v>
       </c>
       <c r="J57" s="3">
-        <v>12</v>
+        <v>1353835</v>
       </c>
       <c r="K57" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="3">
-        <v>139290</v>
+        <v>813303</v>
       </c>
       <c r="C58" s="3">
-        <v>12737</v>
-      </c>
-      <c r="D58" s="5">
-        <v>-2949</v>
+        <v>22434</v>
+      </c>
+      <c r="D58" s="4">
+        <v>15788</v>
       </c>
       <c r="E58" s="3">
-        <v>2.35</v>
+        <v>123.75</v>
       </c>
       <c r="F58" s="6">
-        <v>46300</v>
+        <v>20650</v>
       </c>
       <c r="G58" s="3">
-        <v>2435</v>
+        <v>57.65</v>
       </c>
       <c r="H58" s="4">
-        <v>0</v>
+        <v>21015</v>
       </c>
       <c r="I58" s="3">
-        <v>5</v>
+        <v>29998</v>
       </c>
       <c r="J58" s="3">
-        <v>6</v>
+        <v>904693</v>
       </c>
       <c r="K58" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B59" s="3">
-        <v>121619</v>
+        <v>1429076</v>
       </c>
       <c r="C59" s="3">
-        <v>5982</v>
-      </c>
-      <c r="D59" s="5">
-        <v>-4590</v>
+        <v>59417</v>
+      </c>
+      <c r="D59" s="4">
+        <v>33009</v>
       </c>
       <c r="E59" s="3">
-        <v>2.25</v>
+        <v>94.45</v>
       </c>
       <c r="F59" s="6">
-        <v>46400</v>
+        <v>20700</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="5">
-        <v>0</v>
+        <v>78.349999999999994</v>
+      </c>
+      <c r="H59" s="4">
+        <v>22344</v>
       </c>
       <c r="I59" s="3">
-        <v>633</v>
+        <v>40921</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>869640</v>
       </c>
       <c r="K59" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" s="3">
-        <v>819553</v>
+        <v>730600</v>
       </c>
       <c r="C60" s="3">
-        <v>91086</v>
+        <v>28024</v>
       </c>
       <c r="D60" s="4">
-        <v>12862</v>
+        <v>15390</v>
       </c>
       <c r="E60" s="3">
-        <v>2.4500000000000002</v>
+        <v>70.75</v>
       </c>
       <c r="F60" s="6">
-        <v>46500</v>
+        <v>20750</v>
       </c>
       <c r="G60" s="3">
-        <v>2627</v>
-      </c>
-      <c r="H60" s="5">
-        <v>-18</v>
+        <v>104.45</v>
+      </c>
+      <c r="H60" s="4">
+        <v>4589</v>
       </c>
       <c r="I60" s="3">
-        <v>446</v>
+        <v>10176</v>
       </c>
       <c r="J60" s="3">
-        <v>33</v>
+        <v>185206</v>
       </c>
       <c r="K60" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61" s="3">
-        <v>102865</v>
+        <v>995913</v>
       </c>
       <c r="C61" s="3">
-        <v>11293</v>
+        <v>56852</v>
       </c>
       <c r="D61" s="4">
-        <v>4251</v>
+        <v>33338</v>
       </c>
       <c r="E61" s="3">
-        <v>2.2999999999999998</v>
+        <v>51.35</v>
       </c>
       <c r="F61" s="6">
-        <v>46600</v>
+        <v>20800</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="5">
-        <v>0</v>
+        <v>135.19999999999999</v>
+      </c>
+      <c r="H61" s="4">
+        <v>1197</v>
       </c>
       <c r="I61" s="3">
-        <v>3</v>
+        <v>7192</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>126568</v>
       </c>
       <c r="K61" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B62" s="3">
-        <v>131752</v>
+        <v>555615</v>
       </c>
       <c r="C62" s="3">
-        <v>25046</v>
+        <v>37529</v>
       </c>
       <c r="D62" s="4">
-        <v>2234</v>
+        <v>14390</v>
       </c>
       <c r="E62" s="3">
-        <v>2.4</v>
+        <v>36.4</v>
       </c>
       <c r="F62" s="6">
-        <v>46700</v>
+        <v>20850</v>
       </c>
       <c r="G62" s="3">
-        <v>2949.25</v>
-      </c>
-      <c r="H62" s="5">
-        <v>0</v>
+        <v>170.45</v>
+      </c>
+      <c r="H62" s="4">
+        <v>810</v>
       </c>
       <c r="I62" s="3">
-        <v>1</v>
+        <v>3312</v>
       </c>
       <c r="J62" s="3">
-        <v>2</v>
+        <v>25707</v>
       </c>
       <c r="K62" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B63" s="3">
-        <v>77306</v>
+        <v>829824</v>
       </c>
       <c r="C63" s="3">
-        <v>11607</v>
+        <v>61265</v>
       </c>
       <c r="D63" s="4">
-        <v>115</v>
+        <v>34659</v>
       </c>
       <c r="E63" s="3">
-        <v>2</v>
+        <v>24.95</v>
       </c>
       <c r="F63" s="6">
-        <v>46800</v>
+        <v>20900</v>
       </c>
       <c r="G63" s="3">
-        <v>0</v>
+        <v>206.4</v>
       </c>
       <c r="H63" s="4">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="I63" s="3">
-        <v>4</v>
+        <v>2265</v>
       </c>
       <c r="J63" s="3">
-        <v>0</v>
+        <v>12416</v>
       </c>
       <c r="K63" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B64" s="3">
-        <v>68908</v>
+        <v>460122</v>
       </c>
       <c r="C64" s="3">
-        <v>4255</v>
-      </c>
-      <c r="D64" s="5">
-        <v>-543</v>
+        <v>19597</v>
+      </c>
+      <c r="D64" s="4">
+        <v>7873</v>
       </c>
       <c r="E64" s="3">
-        <v>2.0499999999999998</v>
+        <v>17.25</v>
       </c>
       <c r="F64" s="6">
-        <v>46900</v>
+        <v>20950</v>
       </c>
       <c r="G64" s="3">
-        <v>0</v>
+        <v>251.75</v>
       </c>
       <c r="H64" s="4">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I64" s="3">
-        <v>1</v>
+        <v>1393</v>
       </c>
       <c r="J64" s="3">
-        <v>0</v>
+        <v>1791</v>
       </c>
       <c r="K64" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B65" s="3">
-        <v>768734</v>
+        <v>1007525</v>
       </c>
       <c r="C65" s="3">
-        <v>90372</v>
-      </c>
-      <c r="D65" s="5">
-        <v>-39049</v>
+        <v>74959</v>
+      </c>
+      <c r="D65" s="4">
+        <v>27883</v>
       </c>
       <c r="E65" s="3">
-        <v>2</v>
+        <v>11.6</v>
       </c>
       <c r="F65" s="6">
-        <v>47000</v>
+        <v>21000</v>
       </c>
       <c r="G65" s="3">
-        <v>3130.9</v>
-      </c>
-      <c r="H65" s="5">
-        <v>-9</v>
+        <v>297</v>
+      </c>
+      <c r="H65" s="4">
+        <v>1030</v>
       </c>
       <c r="I65" s="3">
-        <v>1350</v>
+        <v>3888</v>
       </c>
       <c r="J65" s="3">
-        <v>39</v>
+        <v>5300</v>
       </c>
       <c r="K65" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B66" s="3">
-        <v>38641</v>
+        <v>456106</v>
       </c>
       <c r="C66" s="3">
-        <v>4358</v>
-      </c>
-      <c r="D66" s="5">
-        <v>-2914</v>
+        <v>22144</v>
+      </c>
+      <c r="D66" s="4">
+        <v>14560</v>
       </c>
       <c r="E66" s="3">
-        <v>1.9</v>
+        <v>7.8</v>
       </c>
       <c r="F66" s="6">
-        <v>47100</v>
+        <v>21050</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3">
-        <v>0</v>
+        <v>345</v>
+      </c>
+      <c r="H66" s="4">
+        <v>8</v>
       </c>
       <c r="I66" s="3">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="J66" s="3">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="K66" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B67" s="3">
-        <v>26326</v>
+        <v>542126</v>
       </c>
       <c r="C67" s="3">
-        <v>1494</v>
-      </c>
-      <c r="D67" s="5">
-        <v>-1571</v>
+        <v>38020</v>
+      </c>
+      <c r="D67" s="4">
+        <v>20973</v>
       </c>
       <c r="E67" s="3">
-        <v>2.0499999999999998</v>
+        <v>5.25</v>
       </c>
       <c r="F67" s="6">
-        <v>47200</v>
+        <v>21100</v>
       </c>
       <c r="G67" s="3">
-        <v>0</v>
-      </c>
-      <c r="H67" s="3">
-        <v>0</v>
+        <v>388</v>
+      </c>
+      <c r="H67" s="4">
+        <v>21</v>
       </c>
       <c r="I67" s="3">
-        <v>1</v>
+        <v>196</v>
       </c>
       <c r="J67" s="3">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="K67" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B68" s="3">
-        <v>18682</v>
+        <v>345763</v>
       </c>
       <c r="C68" s="3">
-        <v>1605</v>
-      </c>
-      <c r="D68" s="5">
-        <v>-189</v>
+        <v>20460</v>
+      </c>
+      <c r="D68" s="4">
+        <v>7104</v>
       </c>
       <c r="E68" s="3">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="F68" s="6">
-        <v>47300</v>
+        <v>21150</v>
       </c>
       <c r="G68" s="3">
-        <v>0</v>
-      </c>
-      <c r="H68" s="3">
-        <v>0</v>
+        <v>448.3</v>
+      </c>
+      <c r="H68" s="4">
+        <v>2</v>
       </c>
       <c r="I68" s="3">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J68" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="K68" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B69" s="3">
-        <v>14949</v>
+        <v>553577</v>
       </c>
       <c r="C69" s="3">
-        <v>1837</v>
+        <v>63480</v>
       </c>
       <c r="D69" s="4">
-        <v>747</v>
+        <v>34138</v>
       </c>
       <c r="E69" s="3">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="F69" s="6">
-        <v>47400</v>
+        <v>21200</v>
       </c>
       <c r="G69" s="3">
-        <v>0</v>
-      </c>
-      <c r="H69" s="5">
-        <v>0</v>
+        <v>492.9</v>
+      </c>
+      <c r="H69" s="4">
+        <v>1</v>
       </c>
       <c r="I69" s="3">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="J69" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K69" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B70" s="3">
-        <v>240917</v>
+        <v>242911</v>
       </c>
       <c r="C70" s="3">
-        <v>27354</v>
-      </c>
-      <c r="D70" s="5">
-        <v>-5444</v>
+        <v>20309</v>
+      </c>
+      <c r="D70" s="4">
+        <v>9387</v>
       </c>
       <c r="E70" s="3">
-        <v>2.0499999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="F70" s="6">
-        <v>47500</v>
+        <v>21250</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="4">
+        <v>534.04999999999995</v>
+      </c>
+      <c r="H70" s="5">
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K70" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B71" s="3">
-        <v>15032</v>
+        <v>305781</v>
       </c>
       <c r="C71" s="3">
-        <v>883</v>
-      </c>
-      <c r="D71" s="5">
-        <v>-1985</v>
+        <v>45402</v>
+      </c>
+      <c r="D71" s="4">
+        <v>21413</v>
       </c>
       <c r="E71" s="3">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="F71" s="6">
-        <v>47600</v>
+        <v>21300</v>
       </c>
       <c r="G71" s="3">
-        <v>0</v>
-      </c>
-      <c r="H71" s="3">
-        <v>0</v>
+        <v>585</v>
+      </c>
+      <c r="H71" s="4">
+        <v>2</v>
       </c>
       <c r="I71" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J71" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K71" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B72" s="3">
-        <v>8970</v>
+        <v>110332</v>
       </c>
       <c r="C72" s="3">
-        <v>2061</v>
+        <v>14447</v>
       </c>
       <c r="D72" s="4">
-        <v>407</v>
+        <v>8486</v>
       </c>
       <c r="E72" s="3">
-        <v>1.85</v>
+        <v>1.05</v>
       </c>
       <c r="F72" s="6">
-        <v>47700</v>
+        <v>21350</v>
       </c>
       <c r="G72" s="3">
         <v>0</v>
       </c>
-      <c r="H72" s="4">
+      <c r="H72" s="5">
         <v>0</v>
       </c>
       <c r="I72" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J72" s="3">
         <v>0</v>
       </c>
       <c r="K72" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B73" s="3">
-        <v>8514</v>
+        <v>278126</v>
       </c>
       <c r="C73" s="3">
-        <v>564</v>
+        <v>56750</v>
       </c>
       <c r="D73" s="4">
-        <v>333</v>
+        <v>28191</v>
       </c>
       <c r="E73" s="3">
-        <v>1.75</v>
+        <v>0.85</v>
       </c>
       <c r="F73" s="6">
-        <v>47800</v>
+        <v>21400</v>
       </c>
       <c r="G73" s="3">
         <v>0</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H73" s="5">
         <v>0</v>
       </c>
       <c r="I73" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J73" s="3">
         <v>0</v>
       </c>
       <c r="K73" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B74" s="3">
-        <v>5264</v>
+        <v>53093</v>
       </c>
       <c r="C74" s="3">
-        <v>1220</v>
+        <v>7905</v>
       </c>
       <c r="D74" s="4">
-        <v>348</v>
+        <v>1120</v>
       </c>
       <c r="E74" s="3">
-        <v>1.9</v>
+        <v>0.75</v>
       </c>
       <c r="F74" s="6">
-        <v>47900</v>
+        <v>21450</v>
       </c>
       <c r="G74" s="3">
         <v>0</v>
       </c>
-      <c r="H74" s="4">
+      <c r="H74" s="5">
         <v>0</v>
       </c>
       <c r="I74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" s="3">
         <v>0</v>
       </c>
       <c r="K74" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B75" s="3">
-        <v>226113</v>
+        <v>164957</v>
       </c>
       <c r="C75" s="3">
-        <v>30463</v>
-      </c>
-      <c r="D75" s="5">
-        <v>-14420</v>
+        <v>43714</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1513</v>
       </c>
       <c r="E75" s="3">
-        <v>1.8</v>
+        <v>0.75</v>
       </c>
       <c r="F75" s="6">
-        <v>48000</v>
+        <v>21500</v>
       </c>
       <c r="G75" s="3">
-        <v>4060</v>
+        <v>791.35</v>
       </c>
       <c r="H75" s="4">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="I75" s="3">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J75" s="3">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K75" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B76" s="3">
-        <v>24704</v>
+        <v>53860</v>
       </c>
       <c r="C76" s="3">
-        <v>939</v>
+        <v>12037</v>
       </c>
       <c r="D76" s="5">
-        <v>-5405</v>
+        <v>-2047</v>
       </c>
       <c r="E76" s="3">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="F76" s="6">
-        <v>48100</v>
+        <v>21550</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
+        <v>825.9</v>
+      </c>
+      <c r="H76" s="5">
         <v>0</v>
       </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
       <c r="J76" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K76" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B77" s="3">
-        <v>26795</v>
+        <v>95453</v>
       </c>
       <c r="C77" s="3">
-        <v>950</v>
+        <v>14555</v>
       </c>
       <c r="D77" s="5">
-        <v>-4457</v>
+        <v>-12310</v>
       </c>
       <c r="E77" s="3">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="F77" s="6">
-        <v>48200</v>
+        <v>21600</v>
       </c>
       <c r="G77" s="3">
         <v>0</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H77" s="5">
         <v>0</v>
       </c>
       <c r="I77" s="3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J77" s="3">
         <v>0</v>
       </c>
       <c r="K77" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B78" s="3">
-        <v>22985</v>
+        <v>18288</v>
       </c>
       <c r="C78" s="3">
-        <v>709</v>
+        <v>3444</v>
       </c>
       <c r="D78" s="5">
-        <v>-4316</v>
+        <v>-89</v>
       </c>
       <c r="E78" s="3">
-        <v>1.75</v>
+        <v>0.6</v>
       </c>
       <c r="F78" s="6">
-        <v>48300</v>
+        <v>21650</v>
       </c>
       <c r="G78" s="3">
         <v>0</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="5">
         <v>0</v>
       </c>
       <c r="I78" s="3">
@@ -2947,24 +2947,24 @@
         <v>0</v>
       </c>
       <c r="K78" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="3">
-        <v>22448</v>
+        <v>73690</v>
       </c>
       <c r="C79" s="3">
-        <v>515</v>
+        <v>21633</v>
       </c>
       <c r="D79" s="5">
-        <v>-4620</v>
+        <v>-2567</v>
       </c>
       <c r="E79" s="3">
-        <v>1.9</v>
+        <v>0.65</v>
       </c>
       <c r="F79" s="6">
-        <v>48400</v>
+        <v>21700</v>
       </c>
       <c r="G79" s="3">
         <v>0</v>
@@ -2973,35 +2973,35 @@
         <v>0</v>
       </c>
       <c r="I79" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J79" s="3">
         <v>0</v>
       </c>
       <c r="K79" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B80" s="3">
-        <v>75618</v>
+        <v>15216</v>
       </c>
       <c r="C80" s="3">
-        <v>11801</v>
-      </c>
-      <c r="D80" s="5">
-        <v>-4580</v>
+        <v>3789</v>
+      </c>
+      <c r="D80" s="4">
+        <v>490</v>
       </c>
       <c r="E80" s="3">
-        <v>1.75</v>
+        <v>0.6</v>
       </c>
       <c r="F80" s="6">
-        <v>48500</v>
+        <v>21750</v>
       </c>
       <c r="G80" s="3">
         <v>0</v>
       </c>
-      <c r="H80" s="4">
+      <c r="H80" s="5">
         <v>0</v>
       </c>
       <c r="I80" s="3">
@@ -3011,56 +3011,56 @@
         <v>0</v>
       </c>
       <c r="K80" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B81" s="3">
-        <v>8978</v>
+        <v>57475</v>
       </c>
       <c r="C81" s="3">
-        <v>1490</v>
+        <v>11308</v>
       </c>
       <c r="D81" s="5">
-        <v>-1556</v>
+        <v>-2513</v>
       </c>
       <c r="E81" s="3">
-        <v>1.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F81" s="6">
-        <v>48600</v>
+        <v>21800</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="4">
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
       <c r="K81" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B82" s="3">
-        <v>10295</v>
+        <v>9572</v>
       </c>
       <c r="C82" s="3">
-        <v>665</v>
-      </c>
-      <c r="D82" s="5">
-        <v>-694</v>
+        <v>2011</v>
+      </c>
+      <c r="D82" s="4">
+        <v>561</v>
       </c>
       <c r="E82" s="3">
-        <v>1.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F82" s="6">
-        <v>48700</v>
+        <v>21850</v>
       </c>
       <c r="G82" s="3">
         <v>0</v>
@@ -3075,88 +3075,88 @@
         <v>0</v>
       </c>
       <c r="K82" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B83" s="3">
-        <v>108431</v>
+        <v>31587</v>
       </c>
       <c r="C83" s="3">
-        <v>21408</v>
-      </c>
-      <c r="D83" s="5">
-        <v>-12439</v>
+        <v>6288</v>
+      </c>
+      <c r="D83" s="4">
+        <v>533</v>
       </c>
       <c r="E83" s="3">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="F83" s="6">
-        <v>49000</v>
+        <v>21900</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="5">
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
       <c r="K83" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B84" s="3">
-        <v>29903</v>
+        <v>6087</v>
       </c>
       <c r="C84" s="3">
-        <v>1198</v>
-      </c>
-      <c r="D84" s="5">
-        <v>-5649</v>
+        <v>2065</v>
+      </c>
+      <c r="D84" s="4">
+        <v>305</v>
       </c>
       <c r="E84" s="3">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="F84" s="6">
-        <v>49500</v>
+        <v>21950</v>
       </c>
       <c r="G84" s="3">
         <v>0</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="4">
         <v>0</v>
       </c>
       <c r="I84" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J84" s="3">
         <v>0</v>
       </c>
       <c r="K84" s="6">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="3">
-        <v>78300</v>
+        <v>35142</v>
       </c>
       <c r="C85" s="3">
-        <v>24738</v>
-      </c>
-      <c r="D85" s="5">
-        <v>-15290</v>
+        <v>11270</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1038</v>
       </c>
       <c r="E85" s="3">
-        <v>1.3</v>
+        <v>0.45</v>
       </c>
       <c r="F85" s="3">
-        <v>50000</v>
+        <v>22000</v>
       </c>
       <c r="G85" s="3">
         <v>0</v>
@@ -3165,30 +3165,30 @@
         <v>0</v>
       </c>
       <c r="I85" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J85" s="3">
         <v>0</v>
       </c>
       <c r="K85" s="3">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B86" s="3">
-        <v>19527</v>
+        <v>3705</v>
       </c>
       <c r="C86" s="3">
-        <v>2432</v>
-      </c>
-      <c r="D86" s="5">
-        <v>-3843</v>
+        <v>768</v>
+      </c>
+      <c r="D86" s="4">
+        <v>12</v>
       </c>
       <c r="E86" s="3">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F86" s="3">
-        <v>50500</v>
+        <v>22050</v>
       </c>
       <c r="G86" s="3">
         <v>0</v>
@@ -3203,24 +3203,24 @@
         <v>0</v>
       </c>
       <c r="K86" s="3">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B87" s="3">
-        <v>57345</v>
+        <v>8713</v>
       </c>
       <c r="C87" s="3">
-        <v>16768</v>
-      </c>
-      <c r="D87" s="5">
-        <v>-919</v>
+        <v>2999</v>
+      </c>
+      <c r="D87" s="4">
+        <v>619</v>
       </c>
       <c r="E87" s="3">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="F87" s="3">
-        <v>51000</v>
+        <v>22100</v>
       </c>
       <c r="G87" s="3">
         <v>0</v>
@@ -3235,56 +3235,56 @@
         <v>0</v>
       </c>
       <c r="K87" s="3">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B88" s="3">
-        <v>40863</v>
+        <v>8005</v>
       </c>
       <c r="C88" s="3">
-        <v>8405</v>
-      </c>
-      <c r="D88" s="5">
-        <v>-829</v>
+        <v>2377</v>
+      </c>
+      <c r="D88" s="4">
+        <v>344</v>
       </c>
       <c r="E88" s="3">
-        <v>1.05</v>
+        <v>0.45</v>
       </c>
       <c r="F88" s="3">
-        <v>51500</v>
+        <v>22200</v>
       </c>
       <c r="G88" s="3">
         <v>0</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H88" s="4">
         <v>0</v>
       </c>
       <c r="I88" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" s="3">
         <v>0</v>
       </c>
       <c r="K88" s="3">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B89" s="3">
-        <v>232250</v>
+        <v>5123</v>
       </c>
       <c r="C89" s="3">
-        <v>99037</v>
-      </c>
-      <c r="D89" s="5">
-        <v>-51164</v>
+        <v>984</v>
+      </c>
+      <c r="D89" s="4">
+        <v>216</v>
       </c>
       <c r="E89" s="3">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="F89" s="3">
-        <v>52000</v>
+        <v>22300</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -3299,104 +3299,588 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>43886.5</v>
+        <v>20671.55</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
+      <c r="B90" s="3">
+        <v>23887</v>
+      </c>
+      <c r="C90" s="3">
+        <v>2045</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1434</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="F90" s="3">
+        <v>22400</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0</v>
+      </c>
+      <c r="H90" s="3">
+        <v>0</v>
+      </c>
+      <c r="I90" s="3">
+        <v>0</v>
+      </c>
+      <c r="J90" s="3">
+        <v>0</v>
+      </c>
+      <c r="K90" s="3">
+        <v>20671.55</v>
+      </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
+      <c r="B91" s="3">
+        <v>6485</v>
+      </c>
+      <c r="C91" s="3">
+        <v>4993</v>
+      </c>
+      <c r="D91" s="4">
+        <v>663</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F91" s="3">
+        <v>22500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>20671.55</v>
+      </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
+      <c r="B92" s="3">
+        <v>2223</v>
+      </c>
+      <c r="C92" s="3">
+        <v>858</v>
+      </c>
+      <c r="D92" s="4">
+        <v>500</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F92" s="3">
+        <v>22600</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0</v>
+      </c>
+      <c r="H92" s="3">
+        <v>0</v>
+      </c>
+      <c r="I92" s="3">
+        <v>0</v>
+      </c>
+      <c r="J92" s="3">
+        <v>0</v>
+      </c>
+      <c r="K92" s="3">
+        <v>20671.55</v>
+      </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
+      <c r="B93" s="3">
+        <v>1682</v>
+      </c>
+      <c r="C93" s="3">
+        <v>939</v>
+      </c>
+      <c r="D93" s="4">
+        <v>208</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F93" s="3">
+        <v>22700</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0</v>
+      </c>
+      <c r="H93" s="5">
+        <v>0</v>
+      </c>
+      <c r="I93" s="3">
+        <v>0</v>
+      </c>
+      <c r="J93" s="3">
+        <v>0</v>
+      </c>
+      <c r="K93" s="3">
+        <v>20671.55</v>
+      </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
+      <c r="B94" s="3">
+        <v>845</v>
+      </c>
+      <c r="C94" s="3">
+        <v>369</v>
+      </c>
+      <c r="D94" s="4">
+        <v>110</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F94" s="3">
+        <v>22800</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>20671.55</v>
+      </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
+      <c r="B95" s="3">
+        <v>610</v>
+      </c>
+      <c r="C95" s="3">
+        <v>374</v>
+      </c>
+      <c r="D95" s="4">
+        <v>68</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="F95" s="3">
+        <v>22900</v>
+      </c>
+      <c r="G95" s="3">
+        <v>0</v>
+      </c>
+      <c r="H95" s="3">
+        <v>0</v>
+      </c>
+      <c r="I95" s="3">
+        <v>0</v>
+      </c>
+      <c r="J95" s="3">
+        <v>0</v>
+      </c>
+      <c r="K95" s="3">
+        <v>20671.55</v>
+      </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
+      <c r="B96" s="3">
+        <v>2272</v>
+      </c>
+      <c r="C96" s="3">
+        <v>4209</v>
+      </c>
+      <c r="D96" s="4">
+        <v>275</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F96" s="3">
+        <v>23000</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>2</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>20671.55</v>
+      </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
+      <c r="B97" s="3">
+        <v>972</v>
+      </c>
+      <c r="C97" s="3">
+        <v>482</v>
+      </c>
+      <c r="D97" s="4">
+        <v>90</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F97" s="3">
+        <v>23100</v>
+      </c>
+      <c r="G97" s="3">
+        <v>0</v>
+      </c>
+      <c r="H97" s="3">
+        <v>0</v>
+      </c>
+      <c r="I97" s="3">
+        <v>0</v>
+      </c>
+      <c r="J97" s="3">
+        <v>0</v>
+      </c>
+      <c r="K97" s="3">
+        <v>20671.55</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B98" s="3">
+        <v>543</v>
+      </c>
+      <c r="C98" s="3">
+        <v>420</v>
+      </c>
+      <c r="D98" s="4">
+        <v>257</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="F98" s="3">
+        <v>23200</v>
+      </c>
+      <c r="G98" s="3">
+        <v>0</v>
+      </c>
+      <c r="H98" s="3">
+        <v>0</v>
+      </c>
+      <c r="I98" s="3">
+        <v>0</v>
+      </c>
+      <c r="J98" s="3">
+        <v>0</v>
+      </c>
+      <c r="K98" s="3">
+        <v>20671.55</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B99" s="3">
+        <v>820</v>
+      </c>
+      <c r="C99" s="3">
+        <v>759</v>
+      </c>
+      <c r="D99" s="5">
+        <v>-34</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F99" s="3">
+        <v>23300</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0</v>
+      </c>
+      <c r="H99" s="3">
+        <v>0</v>
+      </c>
+      <c r="I99" s="3">
+        <v>0</v>
+      </c>
+      <c r="J99" s="3">
+        <v>0</v>
+      </c>
+      <c r="K99" s="3">
+        <v>20671.55</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B100" s="3">
+        <v>1058</v>
+      </c>
+      <c r="C100" s="3">
+        <v>714</v>
+      </c>
+      <c r="D100" s="4">
+        <v>359</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F100" s="3">
+        <v>23400</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>20671.55</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B101" s="3">
+        <v>1091</v>
+      </c>
+      <c r="C101" s="3">
+        <v>1003</v>
+      </c>
+      <c r="D101" s="4">
+        <v>154</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F101" s="3">
+        <v>23500</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>20671.55</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B102" s="3">
+        <v>2482</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1541</v>
+      </c>
+      <c r="D102" s="5">
+        <v>-249</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F102" s="3">
+        <v>24000</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>20671.55</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B103" s="3">
+        <v>4267</v>
+      </c>
+      <c r="C103" s="3">
+        <v>2848</v>
+      </c>
+      <c r="D103" s="5">
+        <v>-1344</v>
+      </c>
+      <c r="E103" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F103" s="3">
+        <v>24500</v>
+      </c>
+      <c r="G103" s="3">
+        <v>0</v>
+      </c>
+      <c r="H103" s="5">
+        <v>0</v>
+      </c>
+      <c r="I103" s="3">
+        <v>0</v>
+      </c>
+      <c r="J103" s="3">
+        <v>0</v>
+      </c>
+      <c r="K103" s="3">
+        <v>20671.55</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
